--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_8_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_8_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1604602.536656462</v>
+        <v>1696692.693151149</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7750877.599742509</v>
+        <v>6970360.774383798</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1607024.556643685</v>
+        <v>1116356.600945274</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10306330.50682056</v>
+        <v>10513989.88288832</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>231.7505882844104</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>237.933284306384</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,19 +712,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -789,7 +791,7 @@
         <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
-        <v>196.8897623984489</v>
+        <v>196.889762398448</v>
       </c>
       <c r="U3" t="n">
         <v>225.8879277888686</v>
@@ -820,13 +822,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>154.8229679689706</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>22.11041309544134</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>26.16482379965428</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -941,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748118</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>143.7391060166177</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250821</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229336</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
       </c>
       <c r="T6" t="n">
-        <v>196.8897623984489</v>
+        <v>196.8897623984484</v>
       </c>
       <c r="U6" t="n">
         <v>225.8879277888686</v>
@@ -1054,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,10 +1065,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>128.0537032279749</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853704</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491435</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>132.7124763329792</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>207.5082424196016</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>93.63007230513458</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.0669836643703</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>99.90681807664345</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>45.44580843958667</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.90078060183509</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
-        <v>147.9721212459916</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T9" t="n">
-        <v>195.0194028815133</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>155.2114886365809</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>110.5456748962399</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1379,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>292.8514770254593</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>65.45244079730936</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>111.9187566128688</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
@@ -1582,19 +1584,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.2419515106227</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>17.71410098832636</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1622,7 +1624,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>218.2527950139046</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -1664,7 +1666,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1774,10 +1776,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>111.9187566128688</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
@@ -1828,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>52.23490948285988</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2002,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>156.8459540917979</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>122.4179473152588</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2090,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>410.9217256534534</v>
@@ -2132,7 +2134,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2242,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>77.31354443380484</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>211.0710715822432</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,22 +2526,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>142.3844270995957</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>17.25588147840188</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,22 +2763,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>142.6955872305738</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2950,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>136.9968647819697</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2998,10 +3000,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>114.4746605491556</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3095,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="33">
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3193,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -3241,7 +3243,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3253,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>146.9083821604497</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3427,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>33.48579464521143</v>
       </c>
       <c r="H37" t="n">
-        <v>103.3286643421944</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
@@ -3709,25 +3711,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>114.2656173771021</v>
       </c>
       <c r="X40" t="n">
-        <v>111.9187566128689</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3743,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3755,7 +3757,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>259.8297247868305</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3800,7 +3802,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>52.72894096573299</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3837,7 +3839,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247738</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3907,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>57.53747797766643</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>13.42874471570741</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3980,13 +3982,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>6.799270092396748</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>410.9217256534534</v>
@@ -4034,7 +4036,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>125.0105445323707</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4138,10 +4140,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4150,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>18.26879610204018</v>
+        <v>35.22061871095661</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
@@ -4201,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1251.855211652197</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="C2" t="n">
-        <v>882.8926947117852</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="D2" t="n">
-        <v>882.8926947117852</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224075</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2212.181128500977</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="W2" t="n">
-        <v>1859.412473230863</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="X2" t="n">
-        <v>1485.946714969783</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="Y2" t="n">
-        <v>1485.946714969783</v>
+        <v>1662.483574129469</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>266.2060027641985</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4437,13 +4439,13 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4510,28 +4512,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>365.6939024587809</v>
+        <v>571.7421478741406</v>
       </c>
       <c r="T4" t="n">
-        <v>365.6939024587809</v>
+        <v>571.7421478741406</v>
       </c>
       <c r="U4" t="n">
-        <v>343.360151857325</v>
+        <v>571.7421478741406</v>
       </c>
       <c r="V4" t="n">
-        <v>343.360151857325</v>
+        <v>571.7421478741406</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>571.7421478741406</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>571.7421478741406</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>350.9495687306105</v>
       </c>
     </row>
     <row r="5">
@@ -4541,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1036.358670716696</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="C5" t="n">
-        <v>1036.358670716696</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D5" t="n">
-        <v>1036.358670716696</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E5" t="n">
         <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>625.372765927088</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252749</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252749</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533159</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733143</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224089</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
         <v>2697.149091018222</v>
@@ -4592,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2496.929385370314</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2165.866498026743</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>1813.097842756629</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="X5" t="n">
-        <v>1813.097842756629</v>
+        <v>1838.715370239897</v>
       </c>
       <c r="Y5" t="n">
-        <v>1422.958510780817</v>
+        <v>1448.576038264086</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204942</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641998</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598715</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4674,19 +4676,19 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>416.5124000972909</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="C7" t="n">
-        <v>416.5124000972909</v>
+        <v>331.20325038051</v>
       </c>
       <c r="D7" t="n">
-        <v>416.5124000972909</v>
+        <v>331.20325038051</v>
       </c>
       <c r="E7" t="n">
-        <v>268.5993065148978</v>
+        <v>183.2901567981169</v>
       </c>
       <c r="F7" t="n">
-        <v>268.5993065148978</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323015</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323015</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323015</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477909</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658207</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502497</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594897</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064339</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600557</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942396</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942396</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>550.5654064942396</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>416.5124000972909</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>416.5124000972909</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>416.5124000972909</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>416.5124000972909</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y7" t="n">
-        <v>416.5124000972909</v>
+        <v>500.1394333084169</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1359.975337580184</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="C8" t="n">
-        <v>1359.975337580184</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D8" t="n">
-        <v>1001.709638973434</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E8" t="n">
-        <v>1001.709638973434</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>590.7237341838262</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>173.6359524202537</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>173.6359524202537</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>75.17723181374775</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>192.4307036906658</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>745.243961936865</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
-        <v>1376.961772920177</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>2004.269440980023</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2551.430645747101</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2662.164970996627</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2540.93405351505</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2331.329768242726</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2077.638064987877</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V8" t="n">
-        <v>1746.575177644306</v>
+        <v>2152.732416223701</v>
       </c>
       <c r="W8" t="n">
-        <v>1746.575177644306</v>
+        <v>1799.963760953587</v>
       </c>
       <c r="X8" t="n">
-        <v>1746.575177644306</v>
+        <v>1426.498002692507</v>
       </c>
       <c r="Y8" t="n">
-        <v>1746.575177644306</v>
+        <v>1036.358670716696</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>967.3646662469702</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>792.9116369658432</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>643.9772273045919</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>484.7397722991365</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>338.2052143260214</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>200.7638166852434</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>99.84783883004796</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>121.5508014837215</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>625.9123413498401</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1266.457690816945</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1934.002090843955</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2483.438099596678</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2613.551098059417</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
-        <v>2636.288039261394</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2615.176139663581</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2465.709350526216</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2268.720054686303</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
-        <v>2040.581267197469</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1805.429158965726</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1551.191802237525</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1343.340302031992</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
-        <v>1135.580003267038</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="10">
@@ -4936,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
         <v>53.94298182036445</v>
@@ -4963,49 +4965,49 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>154.9909114159743</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>339.8239063167927</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>545.0935070360306</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>750.9168718721348</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>925.0117672607337</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>1050.459343859349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>1053.877663279709</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>923.3997019991118</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>715.9594172515172</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>715.9594172515172</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>604.2971193765273</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>604.2971193765273</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>604.2971193765273</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X10" t="n">
-        <v>604.2971193765273</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="Y10" t="n">
-        <v>383.5045402329973</v>
+        <v>210.7222632714563</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2238.304552976108</v>
+        <v>2366.187894490605</v>
       </c>
       <c r="C11" t="n">
-        <v>1869.342036035696</v>
+        <v>1997.225377550193</v>
       </c>
       <c r="D11" t="n">
-        <v>1511.076337428946</v>
+        <v>1638.959678943442</v>
       </c>
       <c r="E11" t="n">
-        <v>1125.288084830702</v>
+        <v>1253.171426345198</v>
       </c>
       <c r="F11" t="n">
-        <v>829.4785120777124</v>
+        <v>842.1855215555905</v>
       </c>
       <c r="G11" t="n">
-        <v>414.4060619227088</v>
+        <v>427.113071400587</v>
       </c>
       <c r="H11" t="n">
-        <v>116.822461531476</v>
+        <v>129.5294710093542</v>
       </c>
       <c r="I11" t="n">
-        <v>74.82556277094471</v>
+        <v>87.53257224882294</v>
       </c>
       <c r="J11" t="n">
-        <v>431.1103427503232</v>
+        <v>443.8173522282014</v>
       </c>
       <c r="K11" t="n">
-        <v>764.9297164401696</v>
+        <v>1046.401594395706</v>
       </c>
       <c r="L11" t="n">
-        <v>1215.963929688578</v>
+        <v>1497.435807644114</v>
       </c>
       <c r="M11" t="n">
-        <v>1749.495834360503</v>
+        <v>2030.967712316039</v>
       </c>
       <c r="N11" t="n">
-        <v>2471.168617323983</v>
+        <v>2577.746529374821</v>
       </c>
       <c r="O11" t="n">
-        <v>2974.14108820332</v>
+        <v>3080.719000254158</v>
       </c>
       <c r="P11" t="n">
-        <v>3368.915454560498</v>
+        <v>3794.074087701104</v>
       </c>
       <c r="Q11" t="n">
-        <v>3617.201816316181</v>
+        <v>4252.552290210092</v>
       </c>
       <c r="R11" t="n">
-        <v>3741.278138547236</v>
+        <v>4376.628612441147</v>
       </c>
       <c r="S11" t="n">
-        <v>3741.278138547236</v>
+        <v>4266.337943968242</v>
       </c>
       <c r="T11" t="n">
-        <v>3741.278138547236</v>
+        <v>4266.337943968242</v>
       </c>
       <c r="U11" t="n">
-        <v>3741.278138547236</v>
+        <v>4200.224367405303</v>
       </c>
       <c r="V11" t="n">
-        <v>3741.278138547236</v>
+        <v>3869.161480061733</v>
       </c>
       <c r="W11" t="n">
-        <v>3388.509483277121</v>
+        <v>3516.392824791618</v>
       </c>
       <c r="X11" t="n">
-        <v>3015.043725016042</v>
+        <v>3142.927066530538</v>
       </c>
       <c r="Y11" t="n">
-        <v>2624.90439304023</v>
+        <v>2752.787734554727</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>949.8573008198699</v>
+        <v>962.5643102977479</v>
       </c>
       <c r="C12" t="n">
-        <v>775.4042715387429</v>
+        <v>788.1112810166209</v>
       </c>
       <c r="D12" t="n">
-        <v>626.4698618774917</v>
+        <v>639.1768713553697</v>
       </c>
       <c r="E12" t="n">
-        <v>467.2324068720362</v>
+        <v>479.9394163499142</v>
       </c>
       <c r="F12" t="n">
-        <v>320.6978488989212</v>
+        <v>333.4048583767992</v>
       </c>
       <c r="G12" t="n">
-        <v>184.3347487315392</v>
+        <v>197.0417582094178</v>
       </c>
       <c r="H12" t="n">
-        <v>93.83285436940676</v>
+        <v>106.5398638472852</v>
       </c>
       <c r="I12" t="n">
-        <v>74.82556277094471</v>
+        <v>87.53257224882294</v>
       </c>
       <c r="J12" t="n">
-        <v>168.502832261562</v>
+        <v>181.2098417394401</v>
       </c>
       <c r="K12" t="n">
-        <v>406.7670312419092</v>
+        <v>419.474040719787</v>
       </c>
       <c r="L12" t="n">
-        <v>773.4651915545746</v>
+        <v>786.1722010324526</v>
       </c>
       <c r="M12" t="n">
-        <v>1220.74151677689</v>
+        <v>1233.448526254768</v>
       </c>
       <c r="N12" t="n">
-        <v>1694.264560331345</v>
+        <v>1706.971569809223</v>
       </c>
       <c r="O12" t="n">
-        <v>2105.2258397494</v>
+        <v>2117.932849227278</v>
       </c>
       <c r="P12" t="n">
-        <v>2415.725431225503</v>
+        <v>2428.432440703381</v>
       </c>
       <c r="Q12" t="n">
-        <v>2573.366988872102</v>
+        <v>2586.073998349981</v>
       </c>
       <c r="R12" t="n">
-        <v>2573.222635464618</v>
+        <v>2585.929644942496</v>
       </c>
       <c r="S12" t="n">
-        <v>2443.784748958098</v>
+        <v>2456.491758435976</v>
       </c>
       <c r="T12" t="n">
-        <v>2251.141748635953</v>
+        <v>2263.848758113832</v>
       </c>
       <c r="U12" t="n">
-        <v>2023.073901770369</v>
+        <v>2035.780911248247</v>
       </c>
       <c r="V12" t="n">
-        <v>1787.921793538626</v>
+        <v>1800.628803016504</v>
       </c>
       <c r="W12" t="n">
-        <v>1533.684436810425</v>
+        <v>1546.391446288303</v>
       </c>
       <c r="X12" t="n">
-        <v>1325.832936604892</v>
+        <v>1338.53994608277</v>
       </c>
       <c r="Y12" t="n">
-        <v>1118.072637839938</v>
+        <v>1130.779647317816</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1099.927126780569</v>
+        <v>611.8275219418088</v>
       </c>
       <c r="C13" t="n">
-        <v>930.9909438526619</v>
+        <v>611.8275219418088</v>
       </c>
       <c r="D13" t="n">
-        <v>780.8743044403261</v>
+        <v>611.8275219418088</v>
       </c>
       <c r="E13" t="n">
-        <v>632.961210857933</v>
+        <v>611.8275219418088</v>
       </c>
       <c r="F13" t="n">
-        <v>486.0712633600226</v>
+        <v>498.7782728379009</v>
       </c>
       <c r="G13" t="n">
-        <v>318.3684267347415</v>
+        <v>331.0754362126198</v>
       </c>
       <c r="H13" t="n">
-        <v>172.1512399525994</v>
+        <v>184.8582494304776</v>
       </c>
       <c r="I13" t="n">
-        <v>74.82556277094471</v>
+        <v>87.53257224882294</v>
       </c>
       <c r="J13" t="n">
-        <v>119.9481952178803</v>
+        <v>132.6552046957585</v>
       </c>
       <c r="K13" t="n">
-        <v>323.9353781667567</v>
+        <v>336.6423876446349</v>
       </c>
       <c r="L13" t="n">
-        <v>640.4951766152528</v>
+        <v>653.202186093131</v>
       </c>
       <c r="M13" t="n">
-        <v>984.6522222148019</v>
+        <v>997.3592316926799</v>
       </c>
       <c r="N13" t="n">
-        <v>1326.060598920667</v>
+        <v>1338.767608398545</v>
       </c>
       <c r="O13" t="n">
-        <v>1625.39019784108</v>
+        <v>1638.097207318958</v>
       </c>
       <c r="P13" t="n">
-        <v>1857.997698274739</v>
+        <v>1870.704707752617</v>
       </c>
       <c r="Q13" t="n">
-        <v>1935.607994427254</v>
+        <v>1948.315003905132</v>
       </c>
       <c r="R13" t="n">
-        <v>1845.777537184782</v>
+        <v>1858.48454666266</v>
       </c>
       <c r="S13" t="n">
-        <v>1654.091653011609</v>
+        <v>1666.798662489487</v>
       </c>
       <c r="T13" t="n">
-        <v>1432.325037581134</v>
+        <v>1445.032047059013</v>
       </c>
       <c r="U13" t="n">
-        <v>1432.325037581134</v>
+        <v>1155.929180184656</v>
       </c>
       <c r="V13" t="n">
-        <v>1432.325037581134</v>
+        <v>901.2446919787693</v>
       </c>
       <c r="W13" t="n">
-        <v>1432.325037581134</v>
+        <v>611.8275219418088</v>
       </c>
       <c r="X13" t="n">
-        <v>1432.325037581134</v>
+        <v>611.8275219418088</v>
       </c>
       <c r="Y13" t="n">
-        <v>1281.575591610808</v>
+        <v>611.8275219418088</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2353.480885012727</v>
+        <v>2289.061662800285</v>
       </c>
       <c r="C14" t="n">
-        <v>1984.518368072315</v>
+        <v>1920.099145859874</v>
       </c>
       <c r="D14" t="n">
-        <v>1626.252669465564</v>
+        <v>1561.833447253123</v>
       </c>
       <c r="E14" t="n">
-        <v>1240.46441686732</v>
+        <v>1176.045194654879</v>
       </c>
       <c r="F14" t="n">
-        <v>829.4785120777124</v>
+        <v>765.0592898652715</v>
       </c>
       <c r="G14" t="n">
-        <v>414.4060619227088</v>
+        <v>349.9868397102679</v>
       </c>
       <c r="H14" t="n">
-        <v>116.822461531476</v>
+        <v>129.5294710093542</v>
       </c>
       <c r="I14" t="n">
-        <v>74.82556277094471</v>
+        <v>87.53257224882294</v>
       </c>
       <c r="J14" t="n">
-        <v>263.7046937299701</v>
+        <v>443.8173522282014</v>
       </c>
       <c r="K14" t="n">
-        <v>597.5240674198167</v>
+        <v>1046.401594395706</v>
       </c>
       <c r="L14" t="n">
-        <v>1048.558280668226</v>
+        <v>1497.435807644114</v>
       </c>
       <c r="M14" t="n">
-        <v>1582.09018534015</v>
+        <v>2030.967712316039</v>
       </c>
       <c r="N14" t="n">
-        <v>2128.869002398932</v>
+        <v>2577.746529374821</v>
       </c>
       <c r="O14" t="n">
-        <v>2631.841473278269</v>
+        <v>3080.719000254158</v>
       </c>
       <c r="P14" t="n">
-        <v>3158.723613807193</v>
+        <v>3794.074087701104</v>
       </c>
       <c r="Q14" t="n">
-        <v>3617.201816316181</v>
+        <v>4252.552290210092</v>
       </c>
       <c r="R14" t="n">
-        <v>3741.278138547236</v>
+        <v>4376.628612441147</v>
       </c>
       <c r="S14" t="n">
-        <v>3741.278138547236</v>
+        <v>4376.628612441147</v>
       </c>
       <c r="T14" t="n">
-        <v>3741.278138547236</v>
+        <v>4376.628612441147</v>
       </c>
       <c r="U14" t="n">
-        <v>3487.747661821072</v>
+        <v>4123.098135714984</v>
       </c>
       <c r="V14" t="n">
-        <v>3487.747661821072</v>
+        <v>3792.035248371413</v>
       </c>
       <c r="W14" t="n">
-        <v>3134.979006550958</v>
+        <v>3439.266593101299</v>
       </c>
       <c r="X14" t="n">
-        <v>2761.513248289878</v>
+        <v>3065.800834840219</v>
       </c>
       <c r="Y14" t="n">
-        <v>2371.373916314066</v>
+        <v>2675.661502864407</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>949.8573008198696</v>
+        <v>962.5643102977482</v>
       </c>
       <c r="C15" t="n">
-        <v>775.4042715387426</v>
+        <v>788.1112810166212</v>
       </c>
       <c r="D15" t="n">
-        <v>626.4698618774914</v>
+        <v>639.1768713553699</v>
       </c>
       <c r="E15" t="n">
-        <v>467.2324068720359</v>
+        <v>479.9394163499144</v>
       </c>
       <c r="F15" t="n">
-        <v>320.6978488989209</v>
+        <v>333.4048583767993</v>
       </c>
       <c r="G15" t="n">
-        <v>184.3347487315393</v>
+        <v>197.0417582094175</v>
       </c>
       <c r="H15" t="n">
-        <v>93.83285436940668</v>
+        <v>106.539863847285</v>
       </c>
       <c r="I15" t="n">
-        <v>74.82556277094471</v>
+        <v>87.53257224882294</v>
       </c>
       <c r="J15" t="n">
-        <v>168.5028322615623</v>
+        <v>181.2098417394403</v>
       </c>
       <c r="K15" t="n">
-        <v>406.7670312419093</v>
+        <v>419.4740407197874</v>
       </c>
       <c r="L15" t="n">
-        <v>773.4651915545744</v>
+        <v>786.1722010324528</v>
       </c>
       <c r="M15" t="n">
-        <v>1220.74151677689</v>
+        <v>1233.448526254769</v>
       </c>
       <c r="N15" t="n">
-        <v>1694.264560331345</v>
+        <v>1706.971569809223</v>
       </c>
       <c r="O15" t="n">
-        <v>2105.2258397494</v>
+        <v>2117.932849227278</v>
       </c>
       <c r="P15" t="n">
-        <v>2415.725431225503</v>
+        <v>2428.432440703381</v>
       </c>
       <c r="Q15" t="n">
-        <v>2573.366988872102</v>
+        <v>2586.073998349981</v>
       </c>
       <c r="R15" t="n">
-        <v>2573.222635464618</v>
+        <v>2585.929644942496</v>
       </c>
       <c r="S15" t="n">
-        <v>2443.784748958098</v>
+        <v>2456.491758435976</v>
       </c>
       <c r="T15" t="n">
-        <v>2251.141748635953</v>
+        <v>2263.848758113832</v>
       </c>
       <c r="U15" t="n">
-        <v>2023.073901770369</v>
+        <v>2035.780911248247</v>
       </c>
       <c r="V15" t="n">
-        <v>1787.921793538626</v>
+        <v>1800.628803016504</v>
       </c>
       <c r="W15" t="n">
-        <v>1533.684436810424</v>
+        <v>1546.391446288303</v>
       </c>
       <c r="X15" t="n">
-        <v>1325.832936604892</v>
+        <v>1338.53994608277</v>
       </c>
       <c r="Y15" t="n">
-        <v>1118.072637839938</v>
+        <v>1130.779647317816</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>599.1205124639305</v>
+        <v>331.0754362126198</v>
       </c>
       <c r="C16" t="n">
-        <v>599.1205124639305</v>
+        <v>331.0754362126198</v>
       </c>
       <c r="D16" t="n">
-        <v>599.1205124639305</v>
+        <v>331.0754362126198</v>
       </c>
       <c r="E16" t="n">
-        <v>599.1205124639305</v>
+        <v>331.0754362126198</v>
       </c>
       <c r="F16" t="n">
-        <v>486.0712633600226</v>
+        <v>331.0754362126198</v>
       </c>
       <c r="G16" t="n">
-        <v>318.3684267347415</v>
+        <v>331.0754362126198</v>
       </c>
       <c r="H16" t="n">
-        <v>172.1512399525994</v>
+        <v>184.8582494304776</v>
       </c>
       <c r="I16" t="n">
-        <v>74.82556277094471</v>
+        <v>87.53257224882294</v>
       </c>
       <c r="J16" t="n">
-        <v>119.9481952178803</v>
+        <v>132.6552046957585</v>
       </c>
       <c r="K16" t="n">
-        <v>323.9353781667567</v>
+        <v>336.6423876446349</v>
       </c>
       <c r="L16" t="n">
-        <v>640.4951766152528</v>
+        <v>653.202186093131</v>
       </c>
       <c r="M16" t="n">
-        <v>984.6522222148019</v>
+        <v>997.3592316926799</v>
       </c>
       <c r="N16" t="n">
-        <v>1326.060598920667</v>
+        <v>1338.767608398545</v>
       </c>
       <c r="O16" t="n">
-        <v>1625.39019784108</v>
+        <v>1638.097207318958</v>
       </c>
       <c r="P16" t="n">
-        <v>1857.997698274739</v>
+        <v>1870.704707752617</v>
       </c>
       <c r="Q16" t="n">
-        <v>1935.607994427254</v>
+        <v>1948.315003905132</v>
       </c>
       <c r="R16" t="n">
-        <v>1845.777537184782</v>
+        <v>1858.48454666266</v>
       </c>
       <c r="S16" t="n">
-        <v>1654.091653011609</v>
+        <v>1666.798662489487</v>
       </c>
       <c r="T16" t="n">
-        <v>1432.325037581134</v>
+        <v>1445.032047059013</v>
       </c>
       <c r="U16" t="n">
-        <v>1143.222170706778</v>
+        <v>1155.929180184656</v>
       </c>
       <c r="V16" t="n">
-        <v>888.537682500891</v>
+        <v>901.2446919787693</v>
       </c>
       <c r="W16" t="n">
-        <v>599.1205124639305</v>
+        <v>611.8275219418088</v>
       </c>
       <c r="X16" t="n">
-        <v>599.1205124639305</v>
+        <v>383.8379710437914</v>
       </c>
       <c r="Y16" t="n">
-        <v>599.1205124639305</v>
+        <v>331.0754362126198</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5494,7 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
@@ -5513,25 +5515,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>685.1208104866384</v>
       </c>
       <c r="L17" t="n">
-        <v>1898.858917622688</v>
+        <v>1549.639626139993</v>
       </c>
       <c r="M17" t="n">
-        <v>2432.390822294613</v>
+        <v>2528.189928969822</v>
       </c>
       <c r="N17" t="n">
-        <v>2979.169639353395</v>
+        <v>3507.942201196468</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q17" t="n">
         <v>4653.975400188666</v>
@@ -5540,19 +5542,19 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5595,10 +5597,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>561.2936040684043</v>
+        <v>658.1567207524339</v>
       </c>
       <c r="C19" t="n">
-        <v>561.2936040684043</v>
+        <v>489.220537824527</v>
       </c>
       <c r="D19" t="n">
-        <v>411.1769646560685</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="E19" t="n">
-        <v>263.2638710736754</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="F19" t="n">
-        <v>263.2638710736754</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5698,25 +5700,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1797.913209446322</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T19" t="n">
-        <v>1576.146594015848</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U19" t="n">
-        <v>1287.043727141492</v>
+        <v>1832.688973867069</v>
       </c>
       <c r="V19" t="n">
-        <v>1032.359238935605</v>
+        <v>1578.004485661182</v>
       </c>
       <c r="W19" t="n">
-        <v>742.942068898644</v>
+        <v>1288.587315624221</v>
       </c>
       <c r="X19" t="n">
-        <v>742.942068898644</v>
+        <v>1060.597764726204</v>
       </c>
       <c r="Y19" t="n">
-        <v>742.942068898644</v>
+        <v>839.8051855826736</v>
       </c>
     </row>
     <row r="20">
@@ -5729,13 +5731,13 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
         <v>850.213983755162</v>
@@ -5750,28 +5752,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L20" t="n">
-        <v>1364.144379432265</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M20" t="n">
-        <v>1897.67628410419</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N20" t="n">
-        <v>2877.428556330836</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O20" t="n">
-        <v>3757.393206660291</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
@@ -5780,16 +5782,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>822.6328654632896</v>
+        <v>492.7083461157126</v>
       </c>
       <c r="C22" t="n">
-        <v>653.6966825353827</v>
+        <v>323.7721631878057</v>
       </c>
       <c r="D22" t="n">
-        <v>653.6966825353827</v>
+        <v>173.65552377547</v>
       </c>
       <c r="E22" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
@@ -5938,22 +5940,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T22" t="n">
-        <v>1734.57685067423</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U22" t="n">
-        <v>1445.473983799873</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V22" t="n">
-        <v>1445.473983799873</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W22" t="n">
-        <v>1445.473983799873</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X22" t="n">
-        <v>1217.484432901856</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="Y22" t="n">
-        <v>1004.281330293529</v>
+        <v>674.3568109459524</v>
       </c>
     </row>
     <row r="23">
@@ -5981,31 +5983,31 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O23" t="n">
-        <v>4010.914672075805</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P23" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q23" t="n">
         <v>4653.975400188666</v>
@@ -6042,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G24" t="n">
         <v>205.0702204089889</v>
@@ -6072,7 +6074,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6084,22 +6086,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6108,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3942.370854773036</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C25" t="n">
-        <v>3773.434671845129</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D25" t="n">
-        <v>3623.318032432793</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>3475.4049388504</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>3328.51499135249</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>3160.812154727209</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>3014.594967945066</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N25" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>4778.051722419721</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T25" t="n">
-        <v>4778.051722419721</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>4778.051722419721</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V25" t="n">
-        <v>4778.051722419721</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W25" t="n">
-        <v>4488.63455238276</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X25" t="n">
-        <v>4344.811898746805</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y25" t="n">
-        <v>4124.019319603275</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="26">
@@ -6200,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N26" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
@@ -6257,19 +6259,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>260.9043113423046</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="C28" t="n">
-        <v>260.9043113423046</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D28" t="n">
-        <v>260.9043113423046</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E28" t="n">
-        <v>112.9912177599115</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F28" t="n">
-        <v>112.9912177599115</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G28" t="n">
-        <v>112.9912177599115</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839442</v>
@@ -6409,25 +6411,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T28" t="n">
-        <v>1542.890966501056</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U28" t="n">
-        <v>1253.788099626699</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V28" t="n">
-        <v>999.1036114208126</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="W28" t="n">
-        <v>709.6864413838521</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="X28" t="n">
-        <v>481.6968904858347</v>
+        <v>1523.103642431788</v>
       </c>
       <c r="Y28" t="n">
-        <v>260.9043113423046</v>
+        <v>1302.311063288258</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
@@ -6464,16 +6466,16 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>750.1800661608916</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1614.698881814246</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2593.249184644075</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N29" t="n">
-        <v>3573.001456870722</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O29" t="n">
         <v>4075.973927750058</v>
@@ -6494,19 +6496,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6595,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>402.8778888732404</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C31" t="n">
-        <v>233.9417059453335</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D31" t="n">
-        <v>233.9417059453335</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>233.9417059453335</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>233.9417059453335</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
         <v>95.56103444839442</v>
@@ -6646,25 +6648,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>1866.513008862232</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1866.513008862232</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U31" t="n">
-        <v>1577.410141987875</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V31" t="n">
-        <v>1322.725653781988</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W31" t="n">
-        <v>1033.308483745028</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X31" t="n">
-        <v>805.3189328470103</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y31" t="n">
-        <v>584.5263537034801</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="32">
@@ -6677,22 +6679,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
@@ -6704,13 +6706,13 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1482.778354750621</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M32" t="n">
-        <v>2461.32865758045</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N32" t="n">
-        <v>3441.080929807096</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O32" t="n">
         <v>4075.973927750058</v>
@@ -6832,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>243.4741280307875</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C34" t="n">
-        <v>243.4741280307875</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D34" t="n">
-        <v>243.4741280307875</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
         <v>95.56103444839442</v>
@@ -6880,28 +6882,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>1163.957642384228</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V34" t="n">
-        <v>909.2731541783409</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W34" t="n">
-        <v>619.8559841413803</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X34" t="n">
-        <v>391.866433243363</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y34" t="n">
-        <v>243.4741280307875</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089261</v>
@@ -6938,16 +6940,16 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L35" t="n">
-        <v>1237.706702364128</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M35" t="n">
-        <v>2216.257005193957</v>
+        <v>2782.232616025903</v>
       </c>
       <c r="N35" t="n">
-        <v>3196.009277420604</v>
+        <v>3329.011433084685</v>
       </c>
       <c r="O35" t="n">
         <v>4075.973927750058</v>
@@ -6968,19 +6970,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="36">
@@ -7017,10 +7019,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>781.811212990069</v>
+        <v>691.980755747597</v>
       </c>
       <c r="C37" t="n">
-        <v>612.8750300621621</v>
+        <v>523.0445728196901</v>
       </c>
       <c r="D37" t="n">
-        <v>612.8750300621621</v>
+        <v>372.9279334073543</v>
       </c>
       <c r="E37" t="n">
-        <v>464.961936479769</v>
+        <v>372.9279334073543</v>
       </c>
       <c r="F37" t="n">
-        <v>464.961936479769</v>
+        <v>372.9279334073543</v>
       </c>
       <c r="G37" t="n">
-        <v>297.2590998544879</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H37" t="n">
         <v>192.8867116300491</v>
@@ -7117,28 +7119,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S37" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T37" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="U37" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="V37" t="n">
-        <v>1701.658977898817</v>
+        <v>1611.828520656345</v>
       </c>
       <c r="W37" t="n">
-        <v>1412.241807861856</v>
+        <v>1322.411350619384</v>
       </c>
       <c r="X37" t="n">
-        <v>1184.252256963839</v>
+        <v>1094.421799721367</v>
       </c>
       <c r="Y37" t="n">
-        <v>963.4596778203087</v>
+        <v>873.6292205778367</v>
       </c>
     </row>
     <row r="38">
@@ -7172,28 +7174,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>446.2053181119705</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972663</v>
+        <v>780.024691801817</v>
       </c>
       <c r="L38" t="n">
-        <v>1482.778354750621</v>
+        <v>1231.058905050226</v>
       </c>
       <c r="M38" t="n">
-        <v>2461.32865758045</v>
+        <v>2209.609207880054</v>
       </c>
       <c r="N38" t="n">
-        <v>3441.080929807096</v>
+        <v>3189.361480106701</v>
       </c>
       <c r="O38" t="n">
-        <v>4075.973927750058</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7306,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>506.8067350374723</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="C40" t="n">
-        <v>506.8067350374723</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D40" t="n">
-        <v>506.8067350374723</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E40" t="n">
-        <v>506.8067350374723</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F40" t="n">
         <v>506.8067350374723</v>
@@ -7357,25 +7359,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S40" t="n">
-        <v>1674.827124689058</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T40" t="n">
-        <v>1453.060509258584</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="U40" t="n">
-        <v>1163.957642384228</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="V40" t="n">
-        <v>909.2731541783409</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="W40" t="n">
-        <v>619.8559841413803</v>
+        <v>1751.093193329805</v>
       </c>
       <c r="X40" t="n">
-        <v>506.8067350374723</v>
+        <v>1523.103642431788</v>
       </c>
       <c r="Y40" t="n">
-        <v>506.8067350374723</v>
+        <v>1302.311063288258</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1953.218287645444</v>
+        <v>2289.061662800285</v>
       </c>
       <c r="C41" t="n">
-        <v>1584.255770705033</v>
+        <v>1920.099145859874</v>
       </c>
       <c r="D41" t="n">
-        <v>1584.255770705033</v>
+        <v>1561.833447253123</v>
       </c>
       <c r="E41" t="n">
-        <v>1198.467518106788</v>
+        <v>1176.045194654879</v>
       </c>
       <c r="F41" t="n">
-        <v>787.481613317181</v>
+        <v>765.0592898652715</v>
       </c>
       <c r="G41" t="n">
-        <v>372.4091631621775</v>
+        <v>349.9868397102679</v>
       </c>
       <c r="H41" t="n">
-        <v>74.82556277094471</v>
+        <v>87.53257224882294</v>
       </c>
       <c r="I41" t="n">
-        <v>74.82556277094471</v>
+        <v>87.53257224882294</v>
       </c>
       <c r="J41" t="n">
-        <v>431.1103427503232</v>
+        <v>443.8173522282014</v>
       </c>
       <c r="K41" t="n">
-        <v>764.9297164401696</v>
+        <v>777.6367259180479</v>
       </c>
       <c r="L41" t="n">
-        <v>1215.963929688578</v>
+        <v>1228.670939166457</v>
       </c>
       <c r="M41" t="n">
-        <v>1749.495834360503</v>
+        <v>2207.221241996285</v>
       </c>
       <c r="N41" t="n">
-        <v>2296.274651419285</v>
+        <v>2896.327250464589</v>
       </c>
       <c r="O41" t="n">
-        <v>2799.247122298622</v>
+        <v>3399.299721343926</v>
       </c>
       <c r="P41" t="n">
-        <v>3368.915454560498</v>
+        <v>3794.074087701104</v>
       </c>
       <c r="Q41" t="n">
-        <v>3617.201816316181</v>
+        <v>4252.552290210092</v>
       </c>
       <c r="R41" t="n">
-        <v>3741.278138547236</v>
+        <v>4376.628612441147</v>
       </c>
       <c r="S41" t="n">
-        <v>3741.278138547236</v>
+        <v>4376.628612441147</v>
       </c>
       <c r="T41" t="n">
-        <v>3741.278138547236</v>
+        <v>4376.628612441147</v>
       </c>
       <c r="U41" t="n">
-        <v>3487.747661821072</v>
+        <v>4123.098135714984</v>
       </c>
       <c r="V41" t="n">
-        <v>3156.684774477501</v>
+        <v>3792.035248371413</v>
       </c>
       <c r="W41" t="n">
-        <v>3103.423217946458</v>
+        <v>3439.266593101299</v>
       </c>
       <c r="X41" t="n">
-        <v>2729.957459685378</v>
+        <v>3065.800834840219</v>
       </c>
       <c r="Y41" t="n">
-        <v>2339.818127709566</v>
+        <v>2675.661502864407</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>949.8573008198699</v>
+        <v>962.5643102977481</v>
       </c>
       <c r="C42" t="n">
-        <v>775.4042715387429</v>
+        <v>788.1112810166211</v>
       </c>
       <c r="D42" t="n">
-        <v>626.4698618774917</v>
+        <v>639.1768713553698</v>
       </c>
       <c r="E42" t="n">
-        <v>467.2324068720362</v>
+        <v>479.9394163499143</v>
       </c>
       <c r="F42" t="n">
-        <v>320.6978488989212</v>
+        <v>333.4048583767993</v>
       </c>
       <c r="G42" t="n">
-        <v>184.3347487315392</v>
+        <v>197.0417582094174</v>
       </c>
       <c r="H42" t="n">
-        <v>93.83285436940676</v>
+        <v>106.5398638472849</v>
       </c>
       <c r="I42" t="n">
-        <v>74.82556277094471</v>
+        <v>87.53257224882294</v>
       </c>
       <c r="J42" t="n">
-        <v>168.502832261562</v>
+        <v>181.2098417394403</v>
       </c>
       <c r="K42" t="n">
-        <v>406.7670312419092</v>
+        <v>419.4740407197874</v>
       </c>
       <c r="L42" t="n">
-        <v>773.4651915545746</v>
+        <v>786.1722010324528</v>
       </c>
       <c r="M42" t="n">
-        <v>1220.74151677689</v>
+        <v>1233.448526254769</v>
       </c>
       <c r="N42" t="n">
-        <v>1694.264560331345</v>
+        <v>1706.971569809223</v>
       </c>
       <c r="O42" t="n">
-        <v>2105.2258397494</v>
+        <v>2117.932849227278</v>
       </c>
       <c r="P42" t="n">
-        <v>2415.725431225503</v>
+        <v>2428.432440703381</v>
       </c>
       <c r="Q42" t="n">
-        <v>2573.366988872102</v>
+        <v>2586.073998349981</v>
       </c>
       <c r="R42" t="n">
-        <v>2573.222635464618</v>
+        <v>2585.929644942496</v>
       </c>
       <c r="S42" t="n">
-        <v>2443.784748958098</v>
+        <v>2456.491758435976</v>
       </c>
       <c r="T42" t="n">
-        <v>2251.141748635953</v>
+        <v>2263.848758113832</v>
       </c>
       <c r="U42" t="n">
-        <v>2023.073901770369</v>
+        <v>2035.780911248247</v>
       </c>
       <c r="V42" t="n">
-        <v>1787.921793538626</v>
+        <v>1800.628803016504</v>
       </c>
       <c r="W42" t="n">
-        <v>1533.684436810425</v>
+        <v>1546.391446288303</v>
       </c>
       <c r="X42" t="n">
-        <v>1325.832936604892</v>
+        <v>1338.53994608277</v>
       </c>
       <c r="Y42" t="n">
-        <v>1118.072637839938</v>
+        <v>1130.779647317816</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1099.927126780569</v>
+        <v>722.2013247967398</v>
       </c>
       <c r="C43" t="n">
-        <v>930.9909438526619</v>
+        <v>553.2651418688329</v>
       </c>
       <c r="D43" t="n">
-        <v>780.8743044403261</v>
+        <v>403.1485024564971</v>
       </c>
       <c r="E43" t="n">
-        <v>632.961210857933</v>
+        <v>255.235408874104</v>
       </c>
       <c r="F43" t="n">
-        <v>486.0712633600226</v>
+        <v>255.235408874104</v>
       </c>
       <c r="G43" t="n">
-        <v>318.3684267347415</v>
+        <v>87.53257224882294</v>
       </c>
       <c r="H43" t="n">
-        <v>172.1512399525994</v>
+        <v>87.53257224882294</v>
       </c>
       <c r="I43" t="n">
-        <v>74.82556277094471</v>
+        <v>87.53257224882294</v>
       </c>
       <c r="J43" t="n">
-        <v>119.9481952178803</v>
+        <v>132.6552046957585</v>
       </c>
       <c r="K43" t="n">
-        <v>323.9353781667567</v>
+        <v>336.6423876446349</v>
       </c>
       <c r="L43" t="n">
-        <v>640.4951766152528</v>
+        <v>653.202186093131</v>
       </c>
       <c r="M43" t="n">
-        <v>984.6522222148019</v>
+        <v>997.3592316926799</v>
       </c>
       <c r="N43" t="n">
-        <v>1326.060598920667</v>
+        <v>1338.767608398545</v>
       </c>
       <c r="O43" t="n">
-        <v>1625.39019784108</v>
+        <v>1638.097207318958</v>
       </c>
       <c r="P43" t="n">
-        <v>1857.997698274739</v>
+        <v>1870.704707752617</v>
       </c>
       <c r="Q43" t="n">
-        <v>1935.607994427254</v>
+        <v>1948.315003905132</v>
       </c>
       <c r="R43" t="n">
-        <v>1935.607994427254</v>
+        <v>1948.315003905132</v>
       </c>
       <c r="S43" t="n">
-        <v>1743.922110254081</v>
+        <v>1890.196339281227</v>
       </c>
       <c r="T43" t="n">
-        <v>1743.922110254081</v>
+        <v>1668.429723850753</v>
       </c>
       <c r="U43" t="n">
-        <v>1730.357721652356</v>
+        <v>1379.326856976397</v>
       </c>
       <c r="V43" t="n">
-        <v>1730.357721652356</v>
+        <v>1124.64236877051</v>
       </c>
       <c r="W43" t="n">
-        <v>1730.357721652356</v>
+        <v>1124.64236877051</v>
       </c>
       <c r="X43" t="n">
-        <v>1502.368170754339</v>
+        <v>1124.64236877051</v>
       </c>
       <c r="Y43" t="n">
-        <v>1281.575591610808</v>
+        <v>903.8497896269795</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1542.232382855837</v>
+        <v>1972.793246711602</v>
       </c>
       <c r="C44" t="n">
-        <v>1173.269865915425</v>
+        <v>1603.830729771191</v>
       </c>
       <c r="D44" t="n">
-        <v>1173.269865915425</v>
+        <v>1596.962780182911</v>
       </c>
       <c r="E44" t="n">
-        <v>787.481613317181</v>
+        <v>1211.174527584667</v>
       </c>
       <c r="F44" t="n">
-        <v>787.481613317181</v>
+        <v>800.1886227950592</v>
       </c>
       <c r="G44" t="n">
-        <v>372.4091631621775</v>
+        <v>385.1161726400557</v>
       </c>
       <c r="H44" t="n">
-        <v>74.82556277094471</v>
+        <v>87.53257224882294</v>
       </c>
       <c r="I44" t="n">
-        <v>74.82556277094471</v>
+        <v>87.53257224882294</v>
       </c>
       <c r="J44" t="n">
-        <v>431.1103427503232</v>
+        <v>443.8173522282014</v>
       </c>
       <c r="K44" t="n">
-        <v>764.9297164401696</v>
+        <v>1046.401594395706</v>
       </c>
       <c r="L44" t="n">
-        <v>1215.963929688578</v>
+        <v>1497.435807644114</v>
       </c>
       <c r="M44" t="n">
-        <v>1749.495834360503</v>
+        <v>2030.967712316039</v>
       </c>
       <c r="N44" t="n">
-        <v>2296.274651419285</v>
+        <v>2577.746529374821</v>
       </c>
       <c r="O44" t="n">
-        <v>2799.247122298622</v>
+        <v>3080.719000254158</v>
       </c>
       <c r="P44" t="n">
-        <v>3194.021488655801</v>
+        <v>3794.074087701104</v>
       </c>
       <c r="Q44" t="n">
-        <v>3617.201816316181</v>
+        <v>4252.552290210092</v>
       </c>
       <c r="R44" t="n">
-        <v>3741.278138547236</v>
+        <v>4376.628612441147</v>
       </c>
       <c r="S44" t="n">
-        <v>3630.987470074331</v>
+        <v>4266.337943968242</v>
       </c>
       <c r="T44" t="n">
-        <v>3425.009722458553</v>
+        <v>4060.360196352464</v>
       </c>
       <c r="U44" t="n">
-        <v>3171.479245732389</v>
+        <v>3806.829719626301</v>
       </c>
       <c r="V44" t="n">
-        <v>3045.205968426964</v>
+        <v>3475.76683228273</v>
       </c>
       <c r="W44" t="n">
-        <v>2692.43731315685</v>
+        <v>3122.998177012616</v>
       </c>
       <c r="X44" t="n">
-        <v>2318.97155489577</v>
+        <v>2749.532418751536</v>
       </c>
       <c r="Y44" t="n">
-        <v>1928.832222919959</v>
+        <v>2359.393086775724</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>949.8573008198699</v>
+        <v>962.5643102977482</v>
       </c>
       <c r="C45" t="n">
-        <v>775.4042715387429</v>
+        <v>788.1112810166212</v>
       </c>
       <c r="D45" t="n">
-        <v>626.4698618774917</v>
+        <v>639.1768713553699</v>
       </c>
       <c r="E45" t="n">
-        <v>467.2324068720362</v>
+        <v>479.9394163499144</v>
       </c>
       <c r="F45" t="n">
-        <v>320.6978488989212</v>
+        <v>333.4048583767993</v>
       </c>
       <c r="G45" t="n">
-        <v>184.3347487315392</v>
+        <v>197.0417582094175</v>
       </c>
       <c r="H45" t="n">
-        <v>93.83285436940676</v>
+        <v>106.539863847285</v>
       </c>
       <c r="I45" t="n">
-        <v>74.82556277094471</v>
+        <v>87.53257224882294</v>
       </c>
       <c r="J45" t="n">
-        <v>168.502832261562</v>
+        <v>181.2098417394403</v>
       </c>
       <c r="K45" t="n">
-        <v>406.7670312419092</v>
+        <v>419.4740407197874</v>
       </c>
       <c r="L45" t="n">
-        <v>773.4651915545746</v>
+        <v>786.1722010324528</v>
       </c>
       <c r="M45" t="n">
-        <v>1220.74151677689</v>
+        <v>1233.448526254769</v>
       </c>
       <c r="N45" t="n">
-        <v>1694.264560331345</v>
+        <v>1706.971569809223</v>
       </c>
       <c r="O45" t="n">
-        <v>2105.2258397494</v>
+        <v>2117.932849227278</v>
       </c>
       <c r="P45" t="n">
-        <v>2415.725431225503</v>
+        <v>2428.432440703381</v>
       </c>
       <c r="Q45" t="n">
-        <v>2573.366988872102</v>
+        <v>2586.073998349981</v>
       </c>
       <c r="R45" t="n">
-        <v>2573.222635464618</v>
+        <v>2585.929644942496</v>
       </c>
       <c r="S45" t="n">
-        <v>2443.784748958098</v>
+        <v>2456.491758435976</v>
       </c>
       <c r="T45" t="n">
-        <v>2251.141748635953</v>
+        <v>2263.848758113832</v>
       </c>
       <c r="U45" t="n">
-        <v>2023.073901770369</v>
+        <v>2035.780911248247</v>
       </c>
       <c r="V45" t="n">
-        <v>1787.921793538626</v>
+        <v>1800.628803016504</v>
       </c>
       <c r="W45" t="n">
-        <v>1533.684436810425</v>
+        <v>1546.391446288303</v>
       </c>
       <c r="X45" t="n">
-        <v>1325.832936604892</v>
+        <v>1338.53994608277</v>
       </c>
       <c r="Y45" t="n">
-        <v>1118.072637839938</v>
+        <v>1130.779647317816</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>240.1688396648553</v>
+        <v>665.3543124594366</v>
       </c>
       <c r="C46" t="n">
-        <v>240.1688396648553</v>
+        <v>665.3543124594366</v>
       </c>
       <c r="D46" t="n">
-        <v>240.1688396648553</v>
+        <v>515.2376730471009</v>
       </c>
       <c r="E46" t="n">
-        <v>240.1688396648553</v>
+        <v>367.3245794647078</v>
       </c>
       <c r="F46" t="n">
-        <v>93.2788921669449</v>
+        <v>220.4346319667974</v>
       </c>
       <c r="G46" t="n">
-        <v>93.2788921669449</v>
+        <v>220.4346319667974</v>
       </c>
       <c r="H46" t="n">
-        <v>74.82556277094471</v>
+        <v>184.8582494304776</v>
       </c>
       <c r="I46" t="n">
-        <v>74.82556277094471</v>
+        <v>87.53257224882294</v>
       </c>
       <c r="J46" t="n">
-        <v>119.9481952178803</v>
+        <v>132.6552046957585</v>
       </c>
       <c r="K46" t="n">
-        <v>323.9353781667567</v>
+        <v>336.6423876446349</v>
       </c>
       <c r="L46" t="n">
-        <v>640.4951766152528</v>
+        <v>653.202186093131</v>
       </c>
       <c r="M46" t="n">
-        <v>984.6522222148019</v>
+        <v>997.3592316926799</v>
       </c>
       <c r="N46" t="n">
-        <v>1326.060598920667</v>
+        <v>1338.767608398545</v>
       </c>
       <c r="O46" t="n">
-        <v>1625.39019784108</v>
+        <v>1638.097207318958</v>
       </c>
       <c r="P46" t="n">
-        <v>1857.997698274739</v>
+        <v>1870.704707752617</v>
       </c>
       <c r="Q46" t="n">
-        <v>1935.607994427254</v>
+        <v>1948.315003905132</v>
       </c>
       <c r="R46" t="n">
-        <v>1935.607994427254</v>
+        <v>1948.315003905132</v>
       </c>
       <c r="S46" t="n">
-        <v>1743.922110254081</v>
+        <v>1948.315003905132</v>
       </c>
       <c r="T46" t="n">
-        <v>1522.155494823607</v>
+        <v>1726.548388474658</v>
       </c>
       <c r="U46" t="n">
-        <v>1233.05262794925</v>
+        <v>1437.445521600302</v>
       </c>
       <c r="V46" t="n">
-        <v>978.3681397433633</v>
+        <v>1182.761033394415</v>
       </c>
       <c r="W46" t="n">
-        <v>688.9509697064027</v>
+        <v>893.343863357454</v>
       </c>
       <c r="X46" t="n">
-        <v>460.9614188083854</v>
+        <v>665.3543124594366</v>
       </c>
       <c r="Y46" t="n">
-        <v>240.1688396648553</v>
+        <v>665.3543124594366</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>145.0294169142005</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8213,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720756</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8295,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.029416914202</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8450,10 +8452,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>35.04072454780376</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8468,10 +8470,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8541,16 +8543,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>473.6238973478236</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>21.63976862165688</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,7 +8692,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>271.4796651289473</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8699,16 +8701,16 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>176.6605716209068</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8924,10 +8926,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>271.4796651289473</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8942,7 +8944,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>133.4421961330758</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9161,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>67.53663776704252</v>
       </c>
       <c r="L17" t="n">
-        <v>344.7025836476838</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9398,19 +9400,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>288.0478149561032</v>
       </c>
       <c r="L20" t="n">
-        <v>297.8289162490807</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
@@ -9419,10 +9421,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>67.53663776704263</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9872,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>133.2530576400255</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10112,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10124,7 +10126,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10352,7 +10354,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10361,7 +10363,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10586,19 +10588,19 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>170.1140909277306</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>246.454569480845</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10820,13 +10822,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>163.3991441460107</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10835,16 +10837,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11066,19 +11068,19 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>143.7648398075971</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>176.660571620907</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11297,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>271.4796651289473</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11312,10 +11314,10 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>176.6605716209068</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -23267,7 +23269,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>114.0245687162521</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23306,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>185.5427311615926</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23413,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>33.50229141006247</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23470,19 +23472,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>69.34270184147212</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>365.0197406751542</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23510,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>76.35496937341588</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23552,7 +23554,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23662,10 +23664,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>33.50229141006247</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23716,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>166.3497438692349</v>
       </c>
     </row>
     <row r="17">
@@ -23890,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,13 +23940,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>32.923071239644</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>163.7938908903541</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>69.12041821276433</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,22 +24180,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>7.513581769851555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,22 +24414,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>83.32522828944147</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>127.4991334359189</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,22 +24651,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>83.01406815846337</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24850,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>29.02894347705856</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24886,10 +24888,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>105.0742887270136</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25081,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>71.67627119164513</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25315,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>132.5400136138168</v>
       </c>
       <c r="H37" t="n">
-        <v>41.42635057212635</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
@@ -25546,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25597,25 +25599,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>172.2573809594889</v>
       </c>
       <c r="X40" t="n">
-        <v>113.7908987761683</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25631,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25643,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>34.77803960048993</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -25688,7 +25690,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>296.51202775168</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25795,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,22 +25836,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>132.2315473537755</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>272.7830934899055</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25868,13 +25870,13 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>347.8837715282862</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25922,7 +25924,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>202.7417139377642</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26026,10 +26028,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26038,10 +26040,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>126.4862188122806</v>
+        <v>109.5343962033642</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26073,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>974009.2231331264</v>
+        <v>974009.2231331263</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>951618.3173206041</v>
+        <v>974009.2231331263</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>796935.4885568247</v>
+        <v>860921.5737376934</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>796935.4885568246</v>
+        <v>860921.5737376936</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>901348.8565745789</v>
+        <v>901348.8565745788</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>901348.8565745789</v>
+        <v>901348.8565745788</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>901348.8565745788</v>
+        <v>901348.8565745789</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>901348.8565745788</v>
+        <v>901348.8565745789</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>796935.4885568247</v>
+        <v>860921.5737376936</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>796935.4885568246</v>
+        <v>860921.5737376935</v>
       </c>
     </row>
   </sheetData>
@@ -26311,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>533677.1504117842</v>
+      </c>
+      <c r="C2" t="n">
+        <v>533677.1504117841</v>
+      </c>
+      <c r="D2" t="n">
         <v>533677.1504117843</v>
       </c>
-      <c r="C2" t="n">
-        <v>533677.1504117843</v>
-      </c>
-      <c r="D2" t="n">
-        <v>533677.1504117845</v>
-      </c>
       <c r="E2" t="n">
-        <v>464162.2091473568</v>
+        <v>496055.6262677534</v>
       </c>
       <c r="F2" t="n">
-        <v>464162.2091473567</v>
+        <v>496055.6262677535</v>
       </c>
       <c r="G2" t="n">
+        <v>516206.3229530784</v>
+      </c>
+      <c r="H2" t="n">
         <v>516206.3229530781</v>
       </c>
-      <c r="H2" t="n">
-        <v>516206.3229530782</v>
-      </c>
       <c r="I2" t="n">
-        <v>516206.3229530783</v>
+        <v>516206.3229530781</v>
       </c>
       <c r="J2" t="n">
-        <v>516206.3229530783</v>
+        <v>516206.3229530781</v>
       </c>
       <c r="K2" t="n">
         <v>516206.3229530783</v>
@@ -26344,16 +26346,16 @@
         <v>516206.3229530783</v>
       </c>
       <c r="M2" t="n">
-        <v>516206.3229530781</v>
+        <v>516206.3229530784</v>
       </c>
       <c r="N2" t="n">
-        <v>516206.3229530782</v>
+        <v>516206.3229530783</v>
       </c>
       <c r="O2" t="n">
-        <v>464162.2091473567</v>
+        <v>496055.6262677534</v>
       </c>
       <c r="P2" t="n">
-        <v>464162.2091473567</v>
+        <v>496055.6262677534</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481119</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>476667.8818351346</v>
+        <v>697413.3866606109</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>71041.02193392254</v>
+        <v>27506.01327461936</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>65050.28379010507</v>
+        <v>104633.2536641696</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,28 +26420,28 @@
         <v>209922.4154630333</v>
       </c>
       <c r="C4" t="n">
-        <v>209922.4154630334</v>
+        <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012793</v>
+        <v>209922.4154630333</v>
       </c>
       <c r="E4" t="n">
-        <v>12100.58511376337</v>
+        <v>22188.28974321239</v>
       </c>
       <c r="F4" t="n">
-        <v>12100.58511376337</v>
+        <v>22188.28974321239</v>
       </c>
       <c r="G4" t="n">
         <v>28561.83935289575</v>
       </c>
       <c r="H4" t="n">
-        <v>28561.83935289576</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="I4" t="n">
         <v>28561.83935289575</v>
       </c>
       <c r="J4" t="n">
-        <v>28561.83935289576</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="K4" t="n">
         <v>28561.83935289576</v>
@@ -26451,13 +26453,13 @@
         <v>28561.83935289576</v>
       </c>
       <c r="N4" t="n">
-        <v>28561.83935289576</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="O4" t="n">
-        <v>12100.58511376337</v>
+        <v>22188.28974321239</v>
       </c>
       <c r="P4" t="n">
-        <v>12100.58511376337</v>
+        <v>22188.28974321239</v>
       </c>
     </row>
     <row r="5">
@@ -26473,13 +26475,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>87562.0451708468</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>80624.55977885188</v>
+        <v>90281.88698203934</v>
       </c>
       <c r="F5" t="n">
-        <v>80624.55977885188</v>
+        <v>90281.88698203934</v>
       </c>
       <c r="G5" t="n">
         <v>96383.51825371366</v>
@@ -26506,10 +26508,10 @@
         <v>96383.51825371366</v>
       </c>
       <c r="O5" t="n">
-        <v>80624.55977885188</v>
+        <v>90281.88698203934</v>
       </c>
       <c r="P5" t="n">
-        <v>80624.55977885188</v>
+        <v>90281.88698203934</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-349072.2223292029</v>
+        <v>-349072.222329203</v>
       </c>
       <c r="C6" t="n">
-        <v>240895.6568853418</v>
+        <v>240895.6568853413</v>
       </c>
       <c r="D6" t="n">
-        <v>85091.85079154652</v>
+        <v>240895.6568853415</v>
       </c>
       <c r="E6" t="n">
-        <v>-105230.817580393</v>
+        <v>-313827.9371181093</v>
       </c>
       <c r="F6" t="n">
-        <v>371437.0642547415</v>
+        <v>383585.4495425017</v>
       </c>
       <c r="G6" t="n">
-        <v>320219.9434125461</v>
+        <v>363754.9520718496</v>
       </c>
       <c r="H6" t="n">
-        <v>391260.9653464688</v>
+        <v>391260.9653464687</v>
       </c>
       <c r="I6" t="n">
+        <v>391260.9653464687</v>
+      </c>
+      <c r="J6" t="n">
+        <v>214837.7461538758</v>
+      </c>
+      <c r="K6" t="n">
         <v>391260.9653464689</v>
-      </c>
-      <c r="J6" t="n">
-        <v>214837.7461538759</v>
-      </c>
-      <c r="K6" t="n">
-        <v>391260.9653464688</v>
       </c>
       <c r="L6" t="n">
         <v>391260.9653464688</v>
       </c>
       <c r="M6" t="n">
-        <v>326210.6815563636</v>
+        <v>286627.7116822993</v>
       </c>
       <c r="N6" t="n">
         <v>391260.9653464688</v>
       </c>
       <c r="O6" t="n">
-        <v>371437.0642547415</v>
+        <v>383585.4495425016</v>
       </c>
       <c r="P6" t="n">
-        <v>371437.0642547415</v>
+        <v>383585.4495425017</v>
       </c>
     </row>
   </sheetData>
@@ -26738,10 +26740,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170863</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>593.4761003380651</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26787,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26796,10 +26798,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>935.319534636809</v>
+        <v>1094.157153110287</v>
       </c>
       <c r="F4" t="n">
-        <v>935.319534636809</v>
+        <v>1094.157153110287</v>
       </c>
       <c r="G4" t="n">
         <v>1194.51293060493</v>
@@ -26826,10 +26828,10 @@
         <v>1194.51293060493</v>
       </c>
       <c r="O4" t="n">
-        <v>935.319534636809</v>
+        <v>1094.157153110287</v>
       </c>
       <c r="P4" t="n">
-        <v>935.319534636809</v>
+        <v>1094.157153110287</v>
       </c>
     </row>
   </sheetData>
@@ -26960,13 +26962,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>-7.261782970440713e-14</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209788</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>496.3006002552332</v>
+        <v>712.0330363762114</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>261.0322618822534</v>
+        <v>419.8698803557312</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>259.1933959681213</v>
+        <v>100.3557774946435</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>261.0322618822534</v>
+        <v>419.8698803557312</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>261.0322618822534</v>
+        <v>419.8698803557312</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>259.1933959681213</v>
+        <v>100.3557774946435</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>150.9832533790701</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>116.7497573142989</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27397,7 +27399,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,19 +27432,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27509,7 +27511,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27540,13 +27542,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27582,28 +27584,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>57.32257098104827</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>264.1714611465364</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>356.5690178638263</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,7 +27624,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27664,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>107.4850614916716</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,10 +27785,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>17.36734479495635</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27797,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,7 +27830,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>153.5693979089985</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>5.143620695364376</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>234.1221861650003</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>24.62049154535643</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,22 +28019,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>123.266557879417</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,31 +28055,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>175.7149797618571</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340044</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140998</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554461</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727434</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630667</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405365</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338302</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119863</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633789</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727379</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473547</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472035</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141102</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188907</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890687</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396469</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.870296998312</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736698</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923045</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479576</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639064</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034977</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131471</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372662</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619148</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078604</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644436</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492003</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813573</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302232</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M7" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175835</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383792</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678003</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701161</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197221</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315607</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.38583356919825</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>24.43391804055158</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>91.97984867651562</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
-        <v>202.4946418937401</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>303.4869768779021</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>376.5024309712531</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>418.9314987074825</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>425.710248335967</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>401.9861157822519</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>343.0858495426701</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>257.6431848457577</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>54.36718245810517</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>10.44398644916534</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1908666855358599</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.276533498840366</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>12.32862615985301</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>43.95082441182841</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>120.6044214847383</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>206.1321659070429</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>277.1701353512822</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>323.4444746842454</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>332.0050874900653</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>303.7197925947077</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>243.7619099671574</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>162.9483813607457</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>79.25705355080804</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>23.71104985784626</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>5.145325813308317</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.08398246702897151</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.070202803888314</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>9.515075838207016</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>32.18391704784131</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>75.66333823490379</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>124.3381075790241</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
-        <v>159.1099695889954</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>167.7591540676927</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>163.7702163441091</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>151.2683017714137</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>129.436164572092</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>89.61489115104783</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>48.12020970937817</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>18.65071613685361</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>4.572684707522795</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0583746983939081</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32315,7 +32317,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
         <v>508.9565619138796</v>
@@ -32561,7 +32563,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
         <v>557.708647897025</v>
@@ -32807,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33044,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33506,10 +33508,10 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
         <v>557.708647897025</v>
@@ -33737,7 +33739,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
         <v>508.9565619138796</v>
@@ -33752,7 +33754,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q36" t="n">
         <v>299.2156706987487</v>
@@ -34229,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34778,7 +34780,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>138.3897561047517</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181328</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343418</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435299</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060962</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492234</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.563508753045</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116796</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770683</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047531</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713856</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262936</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338901</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245896</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735645</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.811094813734</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713947</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850084</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535654</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N7" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.866414655798</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873141</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>118.4378503807253</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>633.6441091513602</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>552.6880856233105</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>111.8528537874005</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130819</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>68.29072693268387</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>509.4561008748672</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>674.2872727545556</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>554.9858674269929</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>131.427271174484</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.96660727472423</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,25 +35333,25 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>102.0686157531412</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>186.6999948493115</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>207.3430310295333</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>207.9023887233377</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>175.8534296854534</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>126.7147238369855</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.452847899353443</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,7 +35412,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>608.6709516843478</v>
       </c>
       <c r="L11" t="n">
         <v>455.5901143923322</v>
@@ -35419,16 +35421,16 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>728.9624070338183</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
         <v>125.3296184152072</v>
@@ -35644,10 +35646,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>608.6709516843478</v>
       </c>
       <c r="L14" t="n">
         <v>455.5901143923322</v>
@@ -35662,7 +35664,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>532.2041823524477</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
         <v>463.1092954636242</v>
@@ -35881,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>404.727924322443</v>
       </c>
       <c r="L17" t="n">
-        <v>800.2926980400159</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
         <v>125.3296184152072</v>
@@ -35963,7 +35965,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
         <v>370.4021821340054</v>
@@ -36118,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>625.2391015115037</v>
       </c>
       <c r="L20" t="n">
-        <v>753.4190306414129</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
         <v>888.8531821509645</v>
@@ -36139,10 +36141,10 @@
         <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36209,7 +36211,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
         <v>415.1124034525806</v>
@@ -36355,28 +36357,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>575.5896386552618</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
         <v>125.3296184152072</v>
@@ -36455,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>641.3060585282446</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36692,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36832,7 +36834,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>470.444344195426</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
         <v>873.2513289427826</v>
@@ -36844,7 +36846,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193719</v>
@@ -37072,7 +37074,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M32" t="n">
         <v>988.4346493230593</v>
@@ -37081,7 +37083,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193719</v>
@@ -37154,10 +37156,10 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
         <v>415.1124034525806</v>
@@ -37306,19 +37308,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>625.7042053200628</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>754.5075703690641</v>
       </c>
       <c r="P35" t="n">
         <v>398.7619862193719</v>
@@ -37385,7 +37387,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
         <v>370.4021821340054</v>
@@ -37400,7 +37402,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q36" t="n">
         <v>159.2338966127272</v>
@@ -37540,13 +37542,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>354.1861451147233</v>
       </c>
       <c r="K38" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
         <v>988.4346493230593</v>
@@ -37555,16 +37557,16 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>641.3060585282446</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37786,19 +37788,19 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>696.0666752205086</v>
       </c>
       <c r="O41" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>575.4225578402788</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
         <v>125.3296184152072</v>
@@ -37877,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,7 +38019,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>608.6709516843478</v>
       </c>
       <c r="L44" t="n">
         <v>455.5901143923322</v>
@@ -38032,10 +38034,10 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>427.4548764246263</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
         <v>125.3296184152072</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_8_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_8_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1696692.693151149</v>
+        <v>1690902.610519898</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6970360.774383798</v>
+        <v>6663746.095359934</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1116356.600945274</v>
+        <v>806345.8827095093</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10513989.88288832</v>
+        <v>10631337.08686945</v>
       </c>
     </row>
     <row r="11">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>237.933284306384</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>414.0711398554625</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>162.9947207958797</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>45.60623256277864</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>217.7045308089147</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -752,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5310119231965</v>
+        <v>136.6845543210566</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>36.6027653823465</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>59.24433418100848</v>
       </c>
       <c r="S3" t="n">
-        <v>156.5912426325231</v>
+        <v>159.4432253296168</v>
       </c>
       <c r="T3" t="n">
-        <v>196.889762398448</v>
+        <v>197.5086460108761</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8980292624121</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -803,7 +803,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -825,13 +825,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>121.384264862796</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>154.8229679689706</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>26.16482379965428</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>215.8429754017412</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,19 +946,19 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1028,7 +1028,7 @@
         <v>156.5912426325231</v>
       </c>
       <c r="T6" t="n">
-        <v>196.8897623984484</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U6" t="n">
         <v>225.8879277888686</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>30.54110646053108</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>128.0537032279749</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>93.63007230513458</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>325.255748559886</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>155.2114886365809</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>101.7806877295491</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,10 +1423,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>65.45244079730936</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>111.9187566128688</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>77.31354443380484</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1624,7 +1624,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>218.2527950139046</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>201.360032484281</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>52.23490948285988</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
@@ -1906,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2010,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>84.99782759111554</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>122.4179473152588</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2244,16 +2244,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>77.31354443380484</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>79.49505480544802</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>163.689844124971</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>134.3879184575345</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>142.6955872305738</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -3003,10 +3003,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>114.4746605491556</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>232.4753817320664</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -3243,7 +3243,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>270.0697021486465</v>
+        <v>181.1375494785995</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3426,10 +3426,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>33.48579464521143</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>203.4068132192029</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3675,13 +3675,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>114.2656173771021</v>
+        <v>212.474059468113</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3757,10 +3757,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>259.8297247868305</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3839,7 +3839,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247738</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3900,13 +3900,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>57.53747797766643</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>111.210643397949</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -3960,13 +3960,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3982,7 +3982,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>6.799270092396748</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3997,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>35.22061871095661</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>100.0025634447716</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1662.483574129469</v>
+        <v>1768.417955289199</v>
       </c>
       <c r="C2" t="n">
-        <v>1662.483574129469</v>
+        <v>1399.455438348787</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>1041.189739742037</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>1041.189739742037</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>630.2038349524291</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>211.9501583307499</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>211.9501583307499</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036444</v>
+        <v>47.3090262136997</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>138.9642385015906</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>397.0764468060702</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>769.564092592718</v>
       </c>
       <c r="M2" t="n">
-        <v>1362.238747280443</v>
+        <v>1200.634914689011</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1624.048915811679</v>
       </c>
       <c r="O2" t="n">
-        <v>2238.843319642689</v>
+        <v>1978.67911263367</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2243.673398054129</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2365.451310684985</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548715</v>
+        <v>2365.451310684985</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862885</v>
+        <v>2319.384409106421</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2099.48084263277</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2099.48084263277</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.483574129469</v>
+        <v>1768.417955289199</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.483574129469</v>
+        <v>1768.417955289199</v>
       </c>
       <c r="X2" t="n">
-        <v>1662.483574129469</v>
+        <v>1768.417955289199</v>
       </c>
       <c r="Y2" t="n">
-        <v>1662.483574129469</v>
+        <v>1768.417955289199</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>851.5061748047526</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>677.0531455236256</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>528.1187358623744</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>368.8812808569189</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>222.3467228838038</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>84.28151649889818</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>47.3090262136997</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036444</v>
+        <v>47.3090262136997</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>108.2048630683006</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641985</v>
+        <v>338.9063907138122</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598704</v>
+        <v>710.5174612568446</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1196.149274459033</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517452</v>
+        <v>1710.341330101581</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537796</v>
+        <v>1905.563735119898</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152625</v>
+        <v>2212.781883695906</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2365.451310684985</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2305.608548885987</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2144.554785926778</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>1945.051103087509</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.714576167582</v>
+        <v>1716.871275549719</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1481.719167317976</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1227.481810589775</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1227.481810589775</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1019.721511824821</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>350.9495687306105</v>
+        <v>614.8390752546177</v>
       </c>
       <c r="C4" t="n">
-        <v>350.9495687306105</v>
+        <v>614.8390752546177</v>
       </c>
       <c r="D4" t="n">
-        <v>200.8329293182748</v>
+        <v>464.7224358422819</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>316.8093422598888</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036444</v>
+        <v>169.9193947619785</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036444</v>
+        <v>47.3090262136997</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036444</v>
+        <v>47.3090262136997</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036444</v>
+        <v>47.3090262136997</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036444</v>
+        <v>47.3090262136997</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>88.80529410181572</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>197.4326649365657</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>322.3541198950591</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>449.7398382896732</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>551.3848716885918</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>614.8390752546177</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>614.8390752546177</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>614.8390752546177</v>
       </c>
       <c r="S4" t="n">
-        <v>571.7421478741406</v>
+        <v>614.8390752546177</v>
       </c>
       <c r="T4" t="n">
-        <v>571.7421478741406</v>
+        <v>614.8390752546177</v>
       </c>
       <c r="U4" t="n">
-        <v>571.7421478741406</v>
+        <v>614.8390752546177</v>
       </c>
       <c r="V4" t="n">
-        <v>571.7421478741406</v>
+        <v>614.8390752546177</v>
       </c>
       <c r="W4" t="n">
-        <v>571.7421478741406</v>
+        <v>614.8390752546177</v>
       </c>
       <c r="X4" t="n">
-        <v>571.7421478741406</v>
+        <v>614.8390752546177</v>
       </c>
       <c r="Y4" t="n">
-        <v>350.9495687306105</v>
+        <v>614.8390752546177</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1422.14692331494</v>
+        <v>1194.683768698139</v>
       </c>
       <c r="C5" t="n">
-        <v>1422.14692331494</v>
+        <v>1194.683768698139</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>836.4180700913887</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>836.4180700913887</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>425.4321653017811</v>
       </c>
       <c r="G5" t="n">
         <v>207.4089578252748</v>
@@ -4570,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2212.181128500977</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W5" t="n">
-        <v>2212.181128500977</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X5" t="n">
-        <v>1838.715370239897</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y5" t="n">
-        <v>1448.576038264086</v>
+        <v>1194.683768698139</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4676,19 +4676,19 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>500.1394333084169</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C7" t="n">
-        <v>331.20325038051</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>331.20325038051</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>183.2901567981169</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>500.1394333084169</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y7" t="n">
-        <v>500.1394333084169</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1036.358670716696</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1036.358670716696</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1036.358670716696</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2152.732416223701</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>1799.963760953587</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="X8" t="n">
-        <v>1426.498002692507</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>1036.358670716696</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170821</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359551</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747037</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692481</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961333</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4889,19 +4889,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4910,16 +4910,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073962</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196741</v>
       </c>
       <c r="U9" t="n">
-        <v>2061.714576167582</v>
+        <v>2061.714576167581</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.562467935838</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207637</v>
@@ -4928,7 +4928,7 @@
         <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.71331223715</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -5001,13 +5001,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>438.7118141694736</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>210.7222632714563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>210.7222632714563</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2366.187894490605</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>1997.225377550193</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
-        <v>1638.959678943442</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1253.171426345198</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>842.1855215555905</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G11" t="n">
-        <v>427.113071400587</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H11" t="n">
-        <v>129.5294710093542</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I11" t="n">
-        <v>87.53257224882294</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>443.8173522282014</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>1046.401594395706</v>
+        <v>786.6724891157196</v>
       </c>
       <c r="L11" t="n">
-        <v>1497.435807644114</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M11" t="n">
-        <v>2030.967712316039</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N11" t="n">
-        <v>2577.746529374821</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O11" t="n">
-        <v>3080.719000254158</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P11" t="n">
-        <v>3794.074087701104</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q11" t="n">
-        <v>4252.552290210092</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
-        <v>4376.628612441147</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4266.337943968242</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4266.337943968242</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4200.224367405303</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3869.161480061733</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3516.392824791618</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
-        <v>3142.927066530538</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2752.787734554727</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>962.5643102977479</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>788.1112810166209</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>639.1768713553697</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>479.9394163499142</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>333.4048583767992</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>197.0417582094178</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H12" t="n">
-        <v>106.5398638472852</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I12" t="n">
-        <v>87.53257224882294</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>181.2098417394401</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>419.474040719787</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>786.1722010324526</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M12" t="n">
-        <v>1233.448526254768</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1706.971569809223</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>2117.932849227278</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2428.432440703381</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
-        <v>2586.073998349981</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2585.929644942496</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2456.491758435976</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
-        <v>2263.848758113832</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2035.780911248247</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
-        <v>1800.628803016504</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1546.391446288303</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1338.53994608277</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1130.779647317816</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>611.8275219418088</v>
+        <v>492.7083461157126</v>
       </c>
       <c r="C13" t="n">
-        <v>611.8275219418088</v>
+        <v>323.7721631878057</v>
       </c>
       <c r="D13" t="n">
-        <v>611.8275219418088</v>
+        <v>173.65552377547</v>
       </c>
       <c r="E13" t="n">
-        <v>611.8275219418088</v>
+        <v>173.65552377547</v>
       </c>
       <c r="F13" t="n">
-        <v>498.7782728379009</v>
+        <v>173.65552377547</v>
       </c>
       <c r="G13" t="n">
-        <v>331.0754362126198</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>184.8582494304776</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
-        <v>87.53257224882294</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
-        <v>132.6552046957585</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>336.6423876446349</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
-        <v>653.202186093131</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M13" t="n">
-        <v>997.3592316926799</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N13" t="n">
-        <v>1338.767608398545</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1638.097207318958</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P13" t="n">
-        <v>1870.704707752617</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1948.315003905132</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1858.48454666266</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1666.798662489487</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T13" t="n">
-        <v>1445.032047059013</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U13" t="n">
-        <v>1155.929180184656</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V13" t="n">
-        <v>901.2446919787693</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W13" t="n">
-        <v>611.8275219418088</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X13" t="n">
-        <v>611.8275219418088</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="Y13" t="n">
-        <v>611.8275219418088</v>
+        <v>674.3568109459524</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2289.061662800285</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>1920.099145859874</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
-        <v>1561.833447253123</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1176.045194654879</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>765.0592898652715</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>349.9868397102679</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
-        <v>129.5294710093542</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
-        <v>87.53257224882294</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>443.8173522282014</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>1046.401594395706</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1497.435807644114</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>2030.967712316039</v>
+        <v>2120.457898518748</v>
       </c>
       <c r="N14" t="n">
-        <v>2577.746529374821</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O14" t="n">
-        <v>3080.719000254158</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P14" t="n">
-        <v>3794.074087701104</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q14" t="n">
-        <v>4252.552290210092</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
-        <v>4376.628612441147</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4376.628612441147</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4376.628612441147</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4123.098135714984</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
-        <v>3792.035248371413</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3439.266593101299</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3065.800834840219</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2675.661502864407</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>962.5643102977482</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C15" t="n">
-        <v>788.1112810166212</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D15" t="n">
-        <v>639.1768713553699</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E15" t="n">
-        <v>479.9394163499144</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F15" t="n">
-        <v>333.4048583767993</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
-        <v>197.0417582094175</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H15" t="n">
-        <v>106.539863847285</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I15" t="n">
-        <v>87.53257224882294</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>181.2098417394403</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
-        <v>419.4740407197874</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>786.1722010324528</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M15" t="n">
-        <v>1233.448526254769</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1706.971569809223</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
-        <v>2117.932849227278</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2428.432440703381</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
-        <v>2586.073998349981</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2585.929644942496</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>2456.491758435976</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
-        <v>2263.848758113832</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2035.780911248247</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
-        <v>1800.628803016504</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W15" t="n">
-        <v>1546.391446288303</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1338.53994608277</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1130.779647317816</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>331.0754362126198</v>
+        <v>578.4172407837245</v>
       </c>
       <c r="C16" t="n">
-        <v>331.0754362126198</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="D16" t="n">
-        <v>331.0754362126198</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E16" t="n">
-        <v>331.0754362126198</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F16" t="n">
-        <v>331.0754362126198</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G16" t="n">
-        <v>331.0754362126198</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H16" t="n">
-        <v>184.8582494304776</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
-        <v>87.53257224882294</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
-        <v>132.6552046957585</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>336.6423876446349</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
-        <v>653.202186093131</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M16" t="n">
-        <v>997.3592316926799</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N16" t="n">
-        <v>1338.767608398545</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1638.097207318958</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
-        <v>1870.704707752617</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1948.315003905132</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1858.48454666266</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1666.798662489487</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T16" t="n">
-        <v>1445.032047059013</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U16" t="n">
-        <v>1155.929180184656</v>
+        <v>1752.949493898359</v>
       </c>
       <c r="V16" t="n">
-        <v>901.2446919787693</v>
+        <v>1498.265005692472</v>
       </c>
       <c r="W16" t="n">
-        <v>611.8275219418088</v>
+        <v>1208.847835655512</v>
       </c>
       <c r="X16" t="n">
-        <v>383.8379710437914</v>
+        <v>980.8582847574944</v>
       </c>
       <c r="Y16" t="n">
-        <v>331.0754362126198</v>
+        <v>760.0657056139643</v>
       </c>
     </row>
     <row r="17">
@@ -5515,40 +5515,40 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>685.1208104866384</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1549.639626139993</v>
+        <v>1586.925993846824</v>
       </c>
       <c r="M17" t="n">
-        <v>2528.189928969822</v>
+        <v>2120.457898518748</v>
       </c>
       <c r="N17" t="n">
-        <v>3507.942201196468</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O17" t="n">
-        <v>4010.914672075805</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P17" t="n">
-        <v>4405.689038432984</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
         <v>3877.189942261304</v>
@@ -5570,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5636,10 +5636,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>658.1567207524339</v>
+        <v>941.4904761572601</v>
       </c>
       <c r="C19" t="n">
-        <v>489.220537824527</v>
+        <v>772.5542932293532</v>
       </c>
       <c r="D19" t="n">
-        <v>339.1038984121913</v>
+        <v>622.4376538170175</v>
       </c>
       <c r="E19" t="n">
-        <v>339.1038984121913</v>
+        <v>474.5245602346243</v>
       </c>
       <c r="F19" t="n">
-        <v>339.1038984121913</v>
+        <v>327.634612736714</v>
       </c>
       <c r="G19" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5706,19 +5706,19 @@
         <v>1956.343466104704</v>
       </c>
       <c r="U19" t="n">
-        <v>1832.688973867069</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V19" t="n">
-        <v>1578.004485661182</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W19" t="n">
-        <v>1288.587315624221</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X19" t="n">
-        <v>1060.597764726204</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="Y19" t="n">
-        <v>839.8051855826736</v>
+        <v>1123.1389409875</v>
       </c>
     </row>
     <row r="20">
@@ -5752,7 +5752,7 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>416.1091927888621</v>
       </c>
       <c r="K20" t="n">
         <v>1070.832524924162</v>
@@ -5892,13 +5892,13 @@
         <v>323.7721631878057</v>
       </c>
       <c r="D22" t="n">
-        <v>173.65552377547</v>
+        <v>323.7721631878057</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839442</v>
+        <v>175.8590696054126</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839442</v>
+        <v>175.8590696054126</v>
       </c>
       <c r="G22" t="n">
         <v>95.56103444839442</v>
@@ -5989,25 +5989,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>351.301436796792</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563073</v>
+        <v>685.1208104866384</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811481</v>
+        <v>1549.639626139993</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483406</v>
+        <v>2528.189928969822</v>
       </c>
       <c r="N23" t="n">
-        <v>2637.914081542188</v>
+        <v>3507.942201196468</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232732</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q23" t="n">
         <v>4653.975400188666</v>
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C24" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
@@ -6086,22 +6086,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6171,28 +6171,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V25" t="n">
-        <v>999.1036114208126</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W25" t="n">
-        <v>709.6864413838521</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X25" t="n">
-        <v>481.6968904858347</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y25" t="n">
-        <v>260.9043113423046</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="26">
@@ -6241,13 +6241,13 @@
         <v>2637.914081542188</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232732</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679678</v>
+        <v>4231.233819318589</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188666</v>
+        <v>4689.712021827577</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1120.662598458018</v>
+        <v>567.9454261809101</v>
       </c>
       <c r="C28" t="n">
-        <v>951.7264155301116</v>
+        <v>399.0092432530032</v>
       </c>
       <c r="D28" t="n">
-        <v>801.6097761177758</v>
+        <v>399.0092432530032</v>
       </c>
       <c r="E28" t="n">
-        <v>653.6966825353827</v>
+        <v>399.0092432530032</v>
       </c>
       <c r="F28" t="n">
-        <v>506.8067350374723</v>
+        <v>399.0092432530032</v>
       </c>
       <c r="G28" t="n">
-        <v>339.1038984121913</v>
+        <v>231.3064066277222</v>
       </c>
       <c r="H28" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839442</v>
@@ -6408,28 +6408,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1667.240599230347</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="V28" t="n">
-        <v>1667.240599230347</v>
+        <v>1198.376021052697</v>
       </c>
       <c r="W28" t="n">
-        <v>1667.240599230347</v>
+        <v>1198.376021052697</v>
       </c>
       <c r="X28" t="n">
-        <v>1523.103642431788</v>
+        <v>970.38647015468</v>
       </c>
       <c r="Y28" t="n">
-        <v>1302.311063288258</v>
+        <v>749.5938910111498</v>
       </c>
     </row>
     <row r="29">
@@ -6463,28 +6463,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>419.327655504578</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972663</v>
+        <v>753.1470291944245</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1617.665844847779</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.32865758045</v>
+        <v>2151.197749519704</v>
       </c>
       <c r="N29" t="n">
-        <v>3441.080929807096</v>
+        <v>3130.950021746351</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750058</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.56103444839442</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C31" t="n">
         <v>95.56103444839442</v>
@@ -6651,22 +6651,22 @@
         <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U31" t="n">
-        <v>1270.093287563029</v>
+        <v>1218.236891347406</v>
       </c>
       <c r="V31" t="n">
-        <v>1015.408799357142</v>
+        <v>963.5524031415191</v>
       </c>
       <c r="W31" t="n">
-        <v>725.9916293201816</v>
+        <v>674.1352331045584</v>
       </c>
       <c r="X31" t="n">
-        <v>498.0020784221642</v>
+        <v>446.1456822065411</v>
       </c>
       <c r="Y31" t="n">
-        <v>277.2094992786341</v>
+        <v>446.1456822065411</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E32" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
@@ -6700,52 +6700,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L32" t="n">
-        <v>1237.706702364128</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M32" t="n">
-        <v>2216.257005193957</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N32" t="n">
-        <v>3196.009277420604</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="33">
@@ -6882,13 +6882,13 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S34" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T34" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U34" t="n">
         <v>1270.093287563029</v>
@@ -6925,13 +6925,13 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551625</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
@@ -6940,16 +6940,16 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L35" t="n">
-        <v>1803.682313196074</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M35" t="n">
-        <v>2782.232616025903</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N35" t="n">
-        <v>3329.011433084685</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O35" t="n">
         <v>4075.973927750058</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>691.980755747597</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C37" t="n">
-        <v>523.0445728196901</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D37" t="n">
-        <v>372.9279334073543</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E37" t="n">
-        <v>372.9279334073543</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F37" t="n">
-        <v>372.9279334073543</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839442</v>
@@ -7119,28 +7119,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1866.513008862232</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T37" t="n">
-        <v>1866.513008862232</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U37" t="n">
-        <v>1866.513008862232</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V37" t="n">
-        <v>1611.828520656345</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W37" t="n">
-        <v>1322.411350619384</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X37" t="n">
-        <v>1094.421799721367</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y37" t="n">
-        <v>873.6292205778367</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="38">
@@ -7168,28 +7168,28 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>446.2053181119705</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>780.024691801817</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L38" t="n">
-        <v>1231.058905050226</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M38" t="n">
-        <v>2209.609207880054</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N38" t="n">
-        <v>3189.361480106701</v>
+        <v>3130.950021746351</v>
       </c>
       <c r="O38" t="n">
-        <v>3692.333950986038</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P38" t="n">
         <v>4405.689038432984</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1120.662598458018</v>
+        <v>855.6340846510827</v>
       </c>
       <c r="C40" t="n">
-        <v>951.7264155301116</v>
+        <v>686.6979017231758</v>
       </c>
       <c r="D40" t="n">
-        <v>801.6097761177758</v>
+        <v>536.5812623108401</v>
       </c>
       <c r="E40" t="n">
-        <v>653.6966825353827</v>
+        <v>388.668168728447</v>
       </c>
       <c r="F40" t="n">
-        <v>506.8067350374723</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G40" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H40" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
@@ -7356,28 +7356,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T40" t="n">
-        <v>1866.513008862232</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U40" t="n">
-        <v>1866.513008862232</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="V40" t="n">
-        <v>1866.513008862232</v>
+        <v>1479.892362468343</v>
       </c>
       <c r="W40" t="n">
-        <v>1751.093193329805</v>
+        <v>1265.27210037934</v>
       </c>
       <c r="X40" t="n">
-        <v>1523.103642431788</v>
+        <v>1037.282549481322</v>
       </c>
       <c r="Y40" t="n">
-        <v>1302.311063288258</v>
+        <v>1037.282549481322</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2289.061662800285</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>1920.099145859874</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1561.833447253123</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1176.045194654879</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>765.0592898652715</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G41" t="n">
-        <v>349.9868397102679</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H41" t="n">
-        <v>87.53257224882294</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>87.53257224882294</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>443.8173522282014</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>777.6367259180479</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1228.670939166457</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>2207.221241996285</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N41" t="n">
-        <v>2896.327250464589</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O41" t="n">
-        <v>3399.299721343926</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P41" t="n">
-        <v>3794.074087701104</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q41" t="n">
-        <v>4252.552290210092</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R41" t="n">
-        <v>4376.628612441147</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4376.628612441147</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4376.628612441147</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4123.098135714984</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V41" t="n">
-        <v>3792.035248371413</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3439.266593101299</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
-        <v>3065.800834840219</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y41" t="n">
-        <v>2675.661502864407</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>962.5643102977481</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>788.1112810166211</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>639.1768713553698</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
-        <v>479.9394163499143</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>333.4048583767993</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>197.0417582094174</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>106.5398638472849</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
-        <v>87.53257224882294</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>181.2098417394403</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>419.4740407197874</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>786.1722010324528</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
-        <v>1233.448526254769</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1706.971569809223</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O42" t="n">
-        <v>2117.932849227278</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
-        <v>2428.432440703381</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
-        <v>2586.073998349981</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>2585.929644942496</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S42" t="n">
-        <v>2456.491758435976</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
-        <v>2263.848758113832</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2035.780911248247</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V42" t="n">
-        <v>1800.628803016504</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W42" t="n">
-        <v>1546.391446288303</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1338.53994608277</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>1130.779647317816</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>722.2013247967398</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="C43" t="n">
-        <v>553.2651418688329</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="D43" t="n">
-        <v>403.1485024564971</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E43" t="n">
-        <v>255.235408874104</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F43" t="n">
-        <v>255.235408874104</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G43" t="n">
-        <v>87.53257224882294</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H43" t="n">
-        <v>87.53257224882294</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
-        <v>87.53257224882294</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
-        <v>132.6552046957585</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
-        <v>336.6423876446349</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L43" t="n">
-        <v>653.202186093131</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M43" t="n">
-        <v>997.3592316926799</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N43" t="n">
-        <v>1338.767608398545</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O43" t="n">
-        <v>1638.097207318958</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P43" t="n">
-        <v>1870.704707752617</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q43" t="n">
-        <v>1948.315003905132</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1948.315003905132</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1890.196339281227</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T43" t="n">
-        <v>1668.429723850753</v>
+        <v>1652.323598701279</v>
       </c>
       <c r="U43" t="n">
-        <v>1379.326856976397</v>
+        <v>1363.220731826922</v>
       </c>
       <c r="V43" t="n">
-        <v>1124.64236877051</v>
+        <v>1108.536243621035</v>
       </c>
       <c r="W43" t="n">
-        <v>1124.64236877051</v>
+        <v>819.1190735840747</v>
       </c>
       <c r="X43" t="n">
-        <v>1124.64236877051</v>
+        <v>591.1295226860574</v>
       </c>
       <c r="Y43" t="n">
-        <v>903.8497896269795</v>
+        <v>591.1295226860574</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1972.793246711602</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>1603.830729771191</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D44" t="n">
-        <v>1596.962780182911</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E44" t="n">
-        <v>1211.174527584667</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F44" t="n">
-        <v>800.1886227950592</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>385.1161726400557</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H44" t="n">
-        <v>87.53257224882294</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I44" t="n">
-        <v>87.53257224882294</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>443.8173522282014</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>1046.401594395706</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1497.435807644114</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M44" t="n">
-        <v>2030.967712316039</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N44" t="n">
-        <v>2577.746529374821</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O44" t="n">
-        <v>3080.719000254158</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P44" t="n">
-        <v>3794.074087701104</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q44" t="n">
-        <v>4252.552290210092</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R44" t="n">
-        <v>4376.628612441147</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4266.337943968242</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>4060.360196352464</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>3806.829719626301</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V44" t="n">
-        <v>3475.76683228273</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3122.998177012616</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X44" t="n">
-        <v>2749.532418751536</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y44" t="n">
-        <v>2359.393086775724</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>962.5643102977482</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C45" t="n">
-        <v>788.1112810166212</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D45" t="n">
-        <v>639.1768713553699</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E45" t="n">
-        <v>479.9394163499144</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F45" t="n">
-        <v>333.4048583767993</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
-        <v>197.0417582094175</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>106.539863847285</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
-        <v>87.53257224882294</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>181.2098417394403</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>419.4740407197874</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>786.1722010324528</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
-        <v>1233.448526254769</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1706.971569809223</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
-        <v>2117.932849227278</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2428.432440703381</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>2586.073998349981</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2585.929644942496</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S45" t="n">
-        <v>2456.491758435976</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
-        <v>2263.848758113832</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2035.780911248247</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
-        <v>1800.628803016504</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W45" t="n">
-        <v>1546.391446288303</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1338.53994608277</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1130.779647317816</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>665.3543124594366</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C46" t="n">
-        <v>665.3543124594366</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D46" t="n">
-        <v>515.2376730471009</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E46" t="n">
-        <v>367.3245794647078</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F46" t="n">
-        <v>220.4346319667974</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G46" t="n">
-        <v>220.4346319667974</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H46" t="n">
-        <v>184.8582494304776</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I46" t="n">
-        <v>87.53257224882294</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
-        <v>132.6552046957585</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K46" t="n">
-        <v>336.6423876446349</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L46" t="n">
-        <v>653.202186093131</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M46" t="n">
-        <v>997.3592316926799</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N46" t="n">
-        <v>1338.767608398545</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
-        <v>1638.097207318958</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P46" t="n">
-        <v>1870.704707752617</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q46" t="n">
-        <v>1948.315003905132</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1948.315003905132</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S46" t="n">
-        <v>1948.315003905132</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T46" t="n">
-        <v>1726.548388474658</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U46" t="n">
-        <v>1437.445521600302</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="V46" t="n">
-        <v>1182.761033394415</v>
+        <v>1352.04781891033</v>
       </c>
       <c r="W46" t="n">
-        <v>893.343863357454</v>
+        <v>1062.630648873369</v>
       </c>
       <c r="X46" t="n">
-        <v>665.3543124594366</v>
+        <v>834.6410979753522</v>
       </c>
       <c r="Y46" t="n">
-        <v>665.3543124594366</v>
+        <v>613.848518831822</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142005</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8072,7 +8072,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>183.006569709503</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8537,7 +8537,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050811</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,28 +8692,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>271.4796651289473</v>
+        <v>1.01747575565679</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8929,19 +8929,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>271.4796651289473</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>29.61882225792147</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>67.53663776704252</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>29.61882225792135</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9400,10 +9400,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>132.9990175570123</v>
       </c>
       <c r="K20" t="n">
-        <v>288.0478149561032</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9637,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>67.53663776704252</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9889,7 +9889,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>29.61882225792094</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>136.2499899971294</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10120,13 +10120,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>170.1140909277306</v>
+        <v>288.0478149561032</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10588,7 +10588,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10597,10 +10597,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>246.454569480845</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>163.3991441460107</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10834,13 +10834,13 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>372.6479802946579</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -11062,22 +11062,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>143.7648398075971</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11299,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>271.4796651289473</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11311,7 +11311,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -23311,10 +23311,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>185.5427311615926</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>33.50229141006247</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>88.71226382522339</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>76.35496937341588</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>84.85180572133191</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>166.3497438692349</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23898,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>81.02798066791269</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>163.7938908903541</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24132,16 +24132,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>69.12041821276433</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>86.5307534535802</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>16.14213605696625</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>10.36709645678633</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>83.01406815846337</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24891,10 +24891,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>105.0742887270136</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>53.7364564735465</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>16.14213605696636</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25314,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>132.5400136138168</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>16.14213605696631</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>172.2573809594889</v>
+        <v>74.04893886847799</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>34.77803960048993</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25788,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -25836,10 +25836,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>132.2315473537755</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>108.3383058782202</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25870,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>347.8837715282862</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>109.5343962033642</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>152.1350798790564</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>974009.2231331263</v>
+        <v>973233.9821312304</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>860921.5737376934</v>
+        <v>901348.8565745788</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>860921.5737376936</v>
+        <v>901348.8565745788</v>
       </c>
     </row>
     <row r="7">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>901348.8565745788</v>
+        <v>901348.8565745787</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>901348.8565745789</v>
+        <v>901348.8565745788</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>901348.8565745789</v>
+        <v>901348.8565745788</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>860921.5737376936</v>
+        <v>901348.8565745788</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>860921.5737376935</v>
+        <v>901348.8565745788</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>533677.1504117846</v>
+      </c>
+      <c r="C2" t="n">
+        <v>533677.1504117843</v>
+      </c>
+      <c r="D2" t="n">
         <v>533677.1504117842</v>
       </c>
-      <c r="C2" t="n">
-        <v>533677.1504117841</v>
-      </c>
-      <c r="D2" t="n">
-        <v>533677.1504117843</v>
-      </c>
       <c r="E2" t="n">
-        <v>496055.6262677534</v>
+        <v>516206.3229530783</v>
       </c>
       <c r="F2" t="n">
-        <v>496055.6262677535</v>
+        <v>516206.3229530782</v>
       </c>
       <c r="G2" t="n">
-        <v>516206.3229530784</v>
+        <v>516206.3229530781</v>
       </c>
       <c r="H2" t="n">
         <v>516206.3229530781</v>
       </c>
       <c r="I2" t="n">
-        <v>516206.3229530781</v>
+        <v>516206.3229530782</v>
       </c>
       <c r="J2" t="n">
         <v>516206.3229530781</v>
       </c>
       <c r="K2" t="n">
+        <v>516206.3229530782</v>
+      </c>
+      <c r="L2" t="n">
+        <v>516206.3229530781</v>
+      </c>
+      <c r="M2" t="n">
         <v>516206.3229530783</v>
       </c>
-      <c r="L2" t="n">
-        <v>516206.3229530783</v>
-      </c>
-      <c r="M2" t="n">
-        <v>516206.3229530784</v>
-      </c>
       <c r="N2" t="n">
-        <v>516206.3229530783</v>
+        <v>516206.3229530781</v>
       </c>
       <c r="O2" t="n">
-        <v>496055.6262677534</v>
+        <v>516206.3229530781</v>
       </c>
       <c r="P2" t="n">
-        <v>496055.6262677534</v>
+        <v>516206.322953078</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>493391.6844106463</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>91792.6395744707</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>697413.3866606109</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>27506.01327461936</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>154726.5356832156</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>21342.09858220119</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>104633.2536641696</v>
+        <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>209922.4154630333</v>
+        <v>235704.9591760461</v>
       </c>
       <c r="C4" t="n">
         <v>209922.4154630333</v>
@@ -26426,10 +26426,10 @@
         <v>209922.4154630333</v>
       </c>
       <c r="E4" t="n">
-        <v>22188.28974321239</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="F4" t="n">
-        <v>22188.28974321239</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="G4" t="n">
         <v>28561.83935289575</v>
@@ -26444,10 +26444,10 @@
         <v>28561.83935289575</v>
       </c>
       <c r="K4" t="n">
-        <v>28561.83935289576</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="L4" t="n">
-        <v>28561.83935289576</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="M4" t="n">
         <v>28561.83935289576</v>
@@ -26456,10 +26456,10 @@
         <v>28561.83935289575</v>
       </c>
       <c r="O4" t="n">
-        <v>22188.28974321239</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="P4" t="n">
-        <v>22188.28974321239</v>
+        <v>28561.83935289575</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>76261.10613140112</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26478,10 +26478,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>90281.88698203934</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>90281.88698203934</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
         <v>96383.51825371366</v>
@@ -26508,10 +26508,10 @@
         <v>96383.51825371366</v>
       </c>
       <c r="O5" t="n">
-        <v>90281.88698203934</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
-        <v>90281.88698203934</v>
+        <v>96383.51825371366</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-349072.222329203</v>
+        <v>-271680.5993063089</v>
       </c>
       <c r="C6" t="n">
-        <v>240895.6568853413</v>
+        <v>149103.0173108708</v>
       </c>
       <c r="D6" t="n">
-        <v>240895.6568853415</v>
+        <v>240895.6568853414</v>
       </c>
       <c r="E6" t="n">
-        <v>-313827.9371181093</v>
+        <v>-336788.4035491958</v>
       </c>
       <c r="F6" t="n">
-        <v>383585.4495425017</v>
+        <v>390589.0104442108</v>
       </c>
       <c r="G6" t="n">
-        <v>363754.9520718496</v>
+        <v>390589.0104442108</v>
       </c>
       <c r="H6" t="n">
-        <v>391260.9653464687</v>
+        <v>390589.0104442108</v>
       </c>
       <c r="I6" t="n">
-        <v>391260.9653464687</v>
+        <v>390589.0104442108</v>
       </c>
       <c r="J6" t="n">
-        <v>214837.7461538758</v>
+        <v>235862.4747609953</v>
       </c>
       <c r="K6" t="n">
-        <v>391260.9653464689</v>
+        <v>369246.9118620097</v>
       </c>
       <c r="L6" t="n">
-        <v>391260.9653464688</v>
+        <v>390589.0104442108</v>
       </c>
       <c r="M6" t="n">
-        <v>286627.7116822993</v>
+        <v>260946.6956052661</v>
       </c>
       <c r="N6" t="n">
-        <v>391260.9653464688</v>
+        <v>390589.0104442108</v>
       </c>
       <c r="O6" t="n">
-        <v>383585.4495425016</v>
+        <v>390589.0104442108</v>
       </c>
       <c r="P6" t="n">
-        <v>383585.4495425017</v>
+        <v>390589.0104442107</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>306.3599178435484</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>591.3628276712462</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
-        <v>1094.157153110287</v>
+        <v>1194.51293060493</v>
       </c>
       <c r="F4" t="n">
-        <v>1094.157153110287</v>
+        <v>1194.51293060493</v>
       </c>
       <c r="G4" t="n">
         <v>1194.51293060493</v>
@@ -26828,10 +26828,10 @@
         <v>1194.51293060493</v>
       </c>
       <c r="O4" t="n">
-        <v>1094.157153110287</v>
+        <v>1194.51293060493</v>
       </c>
       <c r="P4" t="n">
-        <v>1094.157153110287</v>
+        <v>1194.51293060493</v>
       </c>
     </row>
   </sheetData>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>306.3599178435484</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>71.38374637353814</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762114</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>591.3628276712462</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>82.92444508330948</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>419.8698803557312</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>100.3557774946435</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>591.3628276712462</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>82.92444508330948</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>419.8698803557312</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>591.3628276712462</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>82.92444508330948</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>419.8698803557312</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>100.3557774946435</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27381,13 +27381,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>116.7497573142989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>326.8617025836456</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27426,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>72.50477145174345</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>135.3488053536783</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2471250950627</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27475,10 +27475,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>69.26848508913588</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>66.70865780356738</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27511,7 +27511,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27523,7 +27523,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27545,22 +27545,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>46.05426218479738</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>157.3153692344725</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>138.8367272514147</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>54.30080173848793</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,19 +27581,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>39.90169565731858</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>152.4531265631664</v>
       </c>
       <c r="S4" t="n">
-        <v>57.32257098104827</v>
+        <v>214.3888609467086</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>225.5851113727656</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>286.28889559408</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>356.5690178638263</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>197.9411946190538</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27666,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27776,19 +27776,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>136.7057146380968</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>17.36734479495635</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,25 +27900,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>234.1221861650003</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>23.98522015752701</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>24.62049154535643</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>46.8347852886633</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.231597659672556</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>12.61309953212156</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>47.48116877452625</v>
       </c>
       <c r="J2" t="n">
-        <v>128.8865178727436</v>
+        <v>104.5303118676337</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>156.663840801573</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>194.355347678777</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>216.2577725589788</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338304</v>
+        <v>219.7570494095235</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>207.5103501811545</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>177.1052829579882</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044137</v>
+        <v>132.9986917709648</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>77.36434648940623</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>28.06503166978839</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>5.391318755216615</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.09852781277380443</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.6589628421540475</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>6.364193765014092</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>22.68797504784769</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>62.25753764403658</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>106.4080480683578</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478007</v>
+        <v>143.0787521966497</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983122</v>
+        <v>166.9661552247339</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>171.3852525302319</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>156.7840232382922</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>125.8330009723813</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>84.11602876338334</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>40.91349997163466</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>12.23994577422101</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>2.65608268394548</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.04335281856276631</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.5524523108654151</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>4.911803272967058</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>16.61374767584358</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>39.05837837818485</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>64.18491393509095</v>
       </c>
       <c r="L4" t="n">
-        <v>101.2724571246924</v>
+        <v>82.13459174448182</v>
       </c>
       <c r="M4" t="n">
-        <v>106.777606591725</v>
+        <v>86.59941087502138</v>
       </c>
       <c r="N4" t="n">
-        <v>104.2386737666594</v>
+        <v>84.54027044361399</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>78.08662299395888</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>66.81659585230436</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>46.26034759437581</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>24.84026481400311</v>
       </c>
       <c r="S4" t="n">
-        <v>11.87105908695336</v>
+        <v>9.62773709026364</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.360478055515864</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03013376241084086</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33511,7 +33511,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
         <v>557.708647897025</v>
@@ -33754,7 +33754,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
         <v>299.2156706987487</v>
@@ -34465,7 +34465,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987487</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>92.58102251302114</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>260.7194023277572</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>376.2501472592402</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>435.4250728245386</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>427.6909102249167</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>358.2123200222131</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>267.6709953742013</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.9975062898689</v>
+        <v>123.00799255642</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>61.51094631777872</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047517</v>
+        <v>233.0318461065774</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>375.3647177202347</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>490.5371850527155</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>519.3859147904521</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>197.1943485033507</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>310.3213621979882</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>154.2115424132109</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>41.91542210920809</v>
       </c>
       <c r="L4" t="n">
-        <v>128.8624823850085</v>
+        <v>109.724617004798</v>
       </c>
       <c r="M4" t="n">
-        <v>146.3614835535656</v>
+        <v>126.183287836862</v>
       </c>
       <c r="N4" t="n">
-        <v>148.370846145888</v>
+        <v>128.6724428228426</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557981</v>
+        <v>102.6717509079986</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>64.09515511719785</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35257,7 +35257,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730077</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,28 +35412,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>608.6709516843478</v>
+        <v>338.2087623110573</v>
       </c>
       <c r="L11" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35649,19 +35649,19 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>608.6709516843478</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>568.5399380881482</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
         <v>720.5606943908545</v>
@@ -35670,7 +35670,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>404.727924322443</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>485.2089366502535</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36120,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>323.7860185257249</v>
       </c>
       <c r="K20" t="n">
-        <v>625.2391015115037</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
         <v>455.5901143923322</v>
@@ -36357,28 +36357,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>258.3236387357551</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
         <v>125.3296184152072</v>
@@ -36609,7 +36609,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
         <v>720.5606943908545</v>
@@ -36618,7 +36618,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>89.23202080014572</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>327.036990965842</v>
       </c>
       <c r="K29" t="n">
         <v>337.1912865554005</v>
@@ -36840,13 +36840,13 @@
         <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193719</v>
@@ -36855,7 +36855,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>625.7042053200628</v>
+        <v>743.6379293484354</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37159,7 +37159,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
         <v>415.1124034525806</v>
@@ -37308,7 +37308,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
         <v>873.2513289427826</v>
@@ -37317,10 +37317,10 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>754.5075703690641</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P35" t="n">
         <v>398.7619862193719</v>
@@ -37402,7 +37402,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
         <v>159.2338966127272</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>354.1861451147233</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
         <v>337.1912865554005</v>
@@ -37554,13 +37554,13 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>924.9498157075694</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
         <v>250.7943048037195</v>
@@ -37782,22 +37782,22 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>696.0666752205086</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
         <v>463.1092954636242</v>
@@ -38019,7 +38019,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>608.6709516843478</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
         <v>455.5901143923322</v>
@@ -38031,7 +38031,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P44" t="n">
         <v>720.5606943908545</v>
@@ -38113,7 +38113,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
         <v>159.2338966127272</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_8_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_8_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1690902.610519898</v>
+        <v>1694308.101644347</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6663746.095359934</v>
+        <v>6663746.09535993</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095093</v>
+        <v>806345.8827095097</v>
       </c>
     </row>
     <row r="9">
@@ -664,7 +664,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>162.9947207958797</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>72.50477145174284</v>
       </c>
       <c r="S2" t="n">
-        <v>45.60623256277864</v>
+        <v>107.9956605240482</v>
       </c>
       <c r="T2" t="n">
-        <v>217.7045308089147</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2471250950627</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>136.6845543210566</v>
       </c>
       <c r="H3" t="n">
-        <v>36.6027653823465</v>
+        <v>28.33842618975613</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.24433418100848</v>
+        <v>59.24433418100816</v>
       </c>
       <c r="S3" t="n">
-        <v>159.4432253296168</v>
+        <v>159.4432253296167</v>
       </c>
       <c r="T3" t="n">
-        <v>197.5086460108761</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.8980292624121</v>
@@ -803,7 +803,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -822,25 +822,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>121.384264862796</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>157.3153692344725</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>138.8367272514146</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>54.30080173848762</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>39.90169565731821</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>152.4531265631662</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>19.04702810565336</v>
       </c>
     </row>
     <row r="5">
@@ -904,13 +904,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>215.8429754017412</v>
+        <v>41.72755356545443</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1031,7 +1031,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8879277888683</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>30.54110646053108</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1071,13 +1071,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>22.98569063694824</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>325.255748559886</v>
+        <v>310.2076895020999</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1296,7 +1296,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>101.7806877295491</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>101.780687729549</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,10 +1423,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1530,10 +1530,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>15.11174121957035</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>77.31354443380484</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T14" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1767,22 +1767,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>201.360032484281</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>202.2340518623246</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1906,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2016,10 +2016,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>84.99782759111554</v>
+        <v>90.41948680756501</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2244,16 +2244,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>79.49505480544802</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>11.16818915334168</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>74.75769145492404</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>75.85713914525986</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2654,7 +2654,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>134.3879184575345</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>63.51844028320102</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T29" t="n">
         <v>203.9179701396201</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>18.26879610203982</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -3006,7 +3006,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>232.4753817320664</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3426,22 +3426,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>203.4068132192029</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>70.52900209691833</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>16.11451160540301</v>
       </c>
       <c r="W40" t="n">
-        <v>212.474059468113</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3757,7 +3757,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396201</v>
@@ -3900,19 +3900,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>111.210643397949</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>21.57501153728242</v>
       </c>
     </row>
     <row r="44">
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
@@ -4194,10 +4194,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>100.0025634447716</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>187.7130486434321</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1768.417955289199</v>
+        <v>1245.511124565398</v>
       </c>
       <c r="C2" t="n">
-        <v>1399.455438348787</v>
+        <v>876.5486076249867</v>
       </c>
       <c r="D2" t="n">
-        <v>1041.189739742037</v>
+        <v>876.5486076249867</v>
       </c>
       <c r="E2" t="n">
-        <v>1041.189739742037</v>
+        <v>876.5486076249867</v>
       </c>
       <c r="F2" t="n">
-        <v>630.2038349524291</v>
+        <v>465.5627028353792</v>
       </c>
       <c r="G2" t="n">
-        <v>211.9501583307499</v>
+        <v>47.30902621369992</v>
       </c>
       <c r="H2" t="n">
-        <v>211.9501583307499</v>
+        <v>47.30902621369992</v>
       </c>
       <c r="I2" t="n">
-        <v>47.3090262136997</v>
+        <v>47.30902621369992</v>
       </c>
       <c r="J2" t="n">
-        <v>138.9642385015906</v>
+        <v>138.9642385015917</v>
       </c>
       <c r="K2" t="n">
-        <v>397.0764468060702</v>
+        <v>397.0764468060725</v>
       </c>
       <c r="L2" t="n">
-        <v>769.564092592718</v>
+        <v>769.5640925927219</v>
       </c>
       <c r="M2" t="n">
-        <v>1200.634914689011</v>
+        <v>1200.634914689017</v>
       </c>
       <c r="N2" t="n">
-        <v>1624.048915811679</v>
+        <v>1624.048915811686</v>
       </c>
       <c r="O2" t="n">
-        <v>1978.67911263367</v>
+        <v>1978.679112633678</v>
       </c>
       <c r="P2" t="n">
-        <v>2243.673398054129</v>
+        <v>2243.673398054139</v>
       </c>
       <c r="Q2" t="n">
-        <v>2365.451310684985</v>
+        <v>2365.451310684996</v>
       </c>
       <c r="R2" t="n">
-        <v>2365.451310684985</v>
+        <v>2292.214167804448</v>
       </c>
       <c r="S2" t="n">
-        <v>2319.384409106421</v>
+        <v>2183.127642022581</v>
       </c>
       <c r="T2" t="n">
-        <v>2099.48084263277</v>
+        <v>2183.127642022581</v>
       </c>
       <c r="U2" t="n">
-        <v>2099.48084263277</v>
+        <v>1929.342667179083</v>
       </c>
       <c r="V2" t="n">
-        <v>1768.417955289199</v>
+        <v>1598.279779835512</v>
       </c>
       <c r="W2" t="n">
-        <v>1768.417955289199</v>
+        <v>1245.511124565398</v>
       </c>
       <c r="X2" t="n">
-        <v>1768.417955289199</v>
+        <v>1245.511124565398</v>
       </c>
       <c r="Y2" t="n">
-        <v>1768.417955289199</v>
+        <v>1245.511124565398</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>851.5061748047526</v>
+        <v>843.1583574384999</v>
       </c>
       <c r="C3" t="n">
-        <v>677.0531455236256</v>
+        <v>668.7053281573729</v>
       </c>
       <c r="D3" t="n">
-        <v>528.1187358623744</v>
+        <v>519.7709184961217</v>
       </c>
       <c r="E3" t="n">
-        <v>368.8812808569189</v>
+        <v>360.5334634906662</v>
       </c>
       <c r="F3" t="n">
-        <v>222.3467228838038</v>
+        <v>213.9989055175512</v>
       </c>
       <c r="G3" t="n">
-        <v>84.28151649889818</v>
+        <v>75.9336991326455</v>
       </c>
       <c r="H3" t="n">
-        <v>47.3090262136997</v>
+        <v>47.30902621369992</v>
       </c>
       <c r="I3" t="n">
-        <v>47.3090262136997</v>
+        <v>47.30902621369992</v>
       </c>
       <c r="J3" t="n">
-        <v>108.2048630683006</v>
+        <v>108.2048630683013</v>
       </c>
       <c r="K3" t="n">
-        <v>338.9063907138122</v>
+        <v>130.1591986422625</v>
       </c>
       <c r="L3" t="n">
-        <v>710.5174612568446</v>
+        <v>501.7702691852959</v>
       </c>
       <c r="M3" t="n">
-        <v>1196.149274459033</v>
+        <v>987.4020823874855</v>
       </c>
       <c r="N3" t="n">
-        <v>1710.341330101581</v>
+        <v>1501.594138030034</v>
       </c>
       <c r="O3" t="n">
-        <v>1905.563735119898</v>
+        <v>1905.563735119907</v>
       </c>
       <c r="P3" t="n">
-        <v>2212.781883695906</v>
+        <v>2212.781883695916</v>
       </c>
       <c r="Q3" t="n">
-        <v>2365.451310684985</v>
+        <v>2365.451310684996</v>
       </c>
       <c r="R3" t="n">
-        <v>2305.608548885987</v>
+        <v>2305.608548885998</v>
       </c>
       <c r="S3" t="n">
-        <v>2144.554785926778</v>
+        <v>2144.554785926789</v>
       </c>
       <c r="T3" t="n">
-        <v>1945.051103087509</v>
+        <v>2144.554785926789</v>
       </c>
       <c r="U3" t="n">
-        <v>1716.871275549719</v>
+        <v>1916.374958388999</v>
       </c>
       <c r="V3" t="n">
-        <v>1481.719167317976</v>
+        <v>1681.222850157256</v>
       </c>
       <c r="W3" t="n">
-        <v>1227.481810589775</v>
+        <v>1426.985493429055</v>
       </c>
       <c r="X3" t="n">
-        <v>1227.481810589775</v>
+        <v>1219.133993223522</v>
       </c>
       <c r="Y3" t="n">
-        <v>1019.721511824821</v>
+        <v>1011.373694458568</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>614.8390752546177</v>
+        <v>401.3018527029673</v>
       </c>
       <c r="C4" t="n">
-        <v>614.8390752546177</v>
+        <v>401.3018527029673</v>
       </c>
       <c r="D4" t="n">
-        <v>464.7224358422819</v>
+        <v>401.3018527029673</v>
       </c>
       <c r="E4" t="n">
-        <v>316.8093422598888</v>
+        <v>401.3018527029673</v>
       </c>
       <c r="F4" t="n">
-        <v>169.9193947619785</v>
+        <v>401.3018527029673</v>
       </c>
       <c r="G4" t="n">
-        <v>47.3090262136997</v>
+        <v>401.3018527029673</v>
       </c>
       <c r="H4" t="n">
-        <v>47.3090262136997</v>
+        <v>242.3974393348132</v>
       </c>
       <c r="I4" t="n">
-        <v>47.3090262136997</v>
+        <v>102.1583208990409</v>
       </c>
       <c r="J4" t="n">
-        <v>47.3090262136997</v>
+        <v>47.30902621369992</v>
       </c>
       <c r="K4" t="n">
-        <v>88.80529410181572</v>
+        <v>88.80529410181643</v>
       </c>
       <c r="L4" t="n">
-        <v>197.4326649365657</v>
+        <v>197.4326649365671</v>
       </c>
       <c r="M4" t="n">
-        <v>322.3541198950591</v>
+        <v>322.3541198950611</v>
       </c>
       <c r="N4" t="n">
-        <v>449.7398382896732</v>
+        <v>449.739838289676</v>
       </c>
       <c r="O4" t="n">
-        <v>551.3848716885918</v>
+        <v>551.3848716885951</v>
       </c>
       <c r="P4" t="n">
-        <v>614.8390752546177</v>
+        <v>614.8390752546215</v>
       </c>
       <c r="Q4" t="n">
-        <v>614.8390752546177</v>
+        <v>574.5343321664213</v>
       </c>
       <c r="R4" t="n">
-        <v>614.8390752546177</v>
+        <v>420.5412750319101</v>
       </c>
       <c r="S4" t="n">
-        <v>614.8390752546177</v>
+        <v>420.5412750319101</v>
       </c>
       <c r="T4" t="n">
-        <v>614.8390752546177</v>
+        <v>420.5412750319101</v>
       </c>
       <c r="U4" t="n">
-        <v>614.8390752546177</v>
+        <v>420.5412750319101</v>
       </c>
       <c r="V4" t="n">
-        <v>614.8390752546177</v>
+        <v>420.5412750319101</v>
       </c>
       <c r="W4" t="n">
-        <v>614.8390752546177</v>
+        <v>420.5412750319101</v>
       </c>
       <c r="X4" t="n">
-        <v>614.8390752546177</v>
+        <v>420.5412750319101</v>
       </c>
       <c r="Y4" t="n">
-        <v>614.8390752546177</v>
+        <v>401.3018527029673</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1194.683768698139</v>
+        <v>1404.597857825387</v>
       </c>
       <c r="C5" t="n">
-        <v>1194.683768698139</v>
+        <v>1404.597857825387</v>
       </c>
       <c r="D5" t="n">
-        <v>836.4180700913887</v>
+        <v>1046.332159218636</v>
       </c>
       <c r="E5" t="n">
-        <v>836.4180700913887</v>
+        <v>660.5439066203919</v>
       </c>
       <c r="F5" t="n">
-        <v>425.4321653017811</v>
+        <v>249.5580018307843</v>
       </c>
       <c r="G5" t="n">
         <v>207.4089578252748</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205145</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W5" t="n">
-        <v>1958.288858935031</v>
+        <v>2168.202948062278</v>
       </c>
       <c r="X5" t="n">
-        <v>1584.823100673951</v>
+        <v>1794.737189801198</v>
       </c>
       <c r="Y5" t="n">
-        <v>1194.683768698139</v>
+        <v>1404.597857825387</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4682,13 +4682,13 @@
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4704,25 +4704,25 @@
         <v>698.7120650600561</v>
       </c>
       <c r="C7" t="n">
-        <v>667.8624625746712</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>550.798971477663</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>403.9090239797526</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>234.9092237180851</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>77.1608511506152</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>77.1608511506152</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4780,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>1233.603060210037</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="D8" t="n">
         <v>864.6405432696254</v>
@@ -4843,13 +4843,13 @@
         <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2368.607930856721</v>
+        <v>2383.80799051105</v>
       </c>
       <c r="X8" t="n">
-        <v>2368.607930856721</v>
+        <v>2010.34223224997</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>1620.202900274159</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170821</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359551</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747037</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692481</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961333</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036444</v>
@@ -4889,10 +4889,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598704</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517452</v>
@@ -4910,25 +4910,25 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073962</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196741</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
-        <v>2061.714576167581</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935838</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
-        <v>1156.71331223715</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="10">
@@ -4938,10 +4938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>325.6879402326643</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C10" t="n">
-        <v>156.7517573047574</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D10" t="n">
         <v>53.94298182036444</v>
@@ -5004,10 +5004,10 @@
         <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="Y10" t="n">
-        <v>507.3364050629041</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="11">
@@ -5020,49 +5020,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K11" t="n">
-        <v>786.6724891157196</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L11" t="n">
-        <v>1237.706702364128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>2216.257005193957</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N11" t="n">
-        <v>3196.009277420604</v>
+        <v>3070.887536710052</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750058</v>
+        <v>3573.860007589389</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5074,13 +5074,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
         <v>3150.95552873011</v>
@@ -5120,13 +5120,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K12" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5135,7 +5135,7 @@
         <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P12" t="n">
         <v>2436.460902902952</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>492.7083461157126</v>
+        <v>278.5282561439485</v>
       </c>
       <c r="C13" t="n">
-        <v>323.7721631878057</v>
+        <v>278.5282561439485</v>
       </c>
       <c r="D13" t="n">
-        <v>173.65552377547</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E13" t="n">
-        <v>173.65552377547</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F13" t="n">
-        <v>173.65552377547</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G13" t="n">
         <v>95.56103444839442</v>
@@ -5202,7 +5202,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927024</v>
@@ -5214,37 +5214,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T13" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U13" t="n">
-        <v>1667.240599230347</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="V13" t="n">
-        <v>1412.556111024461</v>
+        <v>1198.376021052696</v>
       </c>
       <c r="W13" t="n">
-        <v>1123.1389409875</v>
+        <v>908.9588510157357</v>
       </c>
       <c r="X13" t="n">
-        <v>895.1493900894825</v>
+        <v>680.9693001177184</v>
       </c>
       <c r="Y13" t="n">
-        <v>674.3568109459524</v>
+        <v>460.1767209741882</v>
       </c>
     </row>
     <row r="14">
@@ -5284,31 +5284,31 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1557.603359811481</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M14" t="n">
-        <v>2120.457898518748</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N14" t="n">
-        <v>2667.236715577531</v>
+        <v>3051.398683947134</v>
       </c>
       <c r="O14" t="n">
-        <v>3547.201365906985</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P14" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
         <v>4208.252829604874</v>
@@ -5333,34 +5333,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193584</v>
       </c>
       <c r="L15" t="n">
         <v>794.200663232024</v>
@@ -5381,16 +5381,16 @@
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>578.4172407837245</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="C16" t="n">
-        <v>409.4810578558177</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="D16" t="n">
-        <v>409.4810578558177</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E16" t="n">
-        <v>409.4810578558177</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F16" t="n">
-        <v>409.4810578558177</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G16" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
         <v>95.56103444839442</v>
@@ -5463,25 +5463,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T16" t="n">
-        <v>1956.343466104704</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U16" t="n">
-        <v>1752.949493898359</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.265005692472</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="W16" t="n">
-        <v>1208.847835655512</v>
+        <v>1338.614146438102</v>
       </c>
       <c r="X16" t="n">
-        <v>980.8582847574944</v>
+        <v>1110.624595540085</v>
       </c>
       <c r="Y16" t="n">
-        <v>760.0657056139643</v>
+        <v>889.8320163965544</v>
       </c>
     </row>
     <row r="17">
@@ -5494,46 +5494,46 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>806.1613418786392</v>
       </c>
       <c r="L17" t="n">
-        <v>1586.925993846824</v>
+        <v>1670.680157531994</v>
       </c>
       <c r="M17" t="n">
-        <v>2120.457898518748</v>
+        <v>2649.230460361822</v>
       </c>
       <c r="N17" t="n">
-        <v>2667.236715577531</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O17" t="n">
-        <v>3547.201365906985</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P17" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
         <v>4719.034655862919</v>
@@ -5554,7 +5554,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5570,31 +5570,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K18" t="n">
         <v>427.5025029193589</v>
@@ -5609,25 +5609,25 @@
         <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>941.4904761572601</v>
+        <v>481.6968904858343</v>
       </c>
       <c r="C19" t="n">
-        <v>772.5542932293532</v>
+        <v>481.6968904858343</v>
       </c>
       <c r="D19" t="n">
-        <v>622.4376538170175</v>
+        <v>481.6968904858343</v>
       </c>
       <c r="E19" t="n">
-        <v>474.5245602346243</v>
+        <v>333.7837969034412</v>
       </c>
       <c r="F19" t="n">
-        <v>327.634612736714</v>
+        <v>186.8938494055308</v>
       </c>
       <c r="G19" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
         <v>95.56103444839442</v>
@@ -5676,7 +5676,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5688,37 +5688,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S19" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T19" t="n">
-        <v>1956.343466104704</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U19" t="n">
-        <v>1667.240599230347</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V19" t="n">
-        <v>1412.556111024461</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W19" t="n">
-        <v>1123.1389409875</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="X19" t="n">
-        <v>1123.1389409875</v>
+        <v>481.6968904858343</v>
       </c>
       <c r="Y19" t="n">
-        <v>1123.1389409875</v>
+        <v>481.6968904858343</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
         <v>2005.253839749764</v>
@@ -5737,43 +5737,43 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G20" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>416.1091927888621</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>1070.832524924162</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1521.86673817257</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M20" t="n">
-        <v>2055.398642844495</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N20" t="n">
-        <v>2602.177459903277</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
@@ -5782,22 +5782,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W20" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="21">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>492.7083461157126</v>
+        <v>709.4168978689405</v>
       </c>
       <c r="C22" t="n">
-        <v>323.7721631878057</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D22" t="n">
-        <v>323.7721631878057</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E22" t="n">
-        <v>175.8590696054126</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F22" t="n">
-        <v>175.8590696054126</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
         <v>95.56103444839442</v>
@@ -5952,10 +5952,10 @@
         <v>1123.1389409875</v>
       </c>
       <c r="X22" t="n">
-        <v>895.1493900894825</v>
+        <v>1111.85794184271</v>
       </c>
       <c r="Y22" t="n">
-        <v>674.3568109459524</v>
+        <v>891.0653626991802</v>
       </c>
     </row>
     <row r="23">
@@ -5983,34 +5983,34 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>351.301436796792</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>685.1208104866384</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1549.639626139993</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M23" t="n">
-        <v>2528.189928969822</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N23" t="n">
-        <v>3507.942201196468</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O23" t="n">
-        <v>4010.914672075805</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R23" t="n">
         <v>4778.051722419721</v>
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
@@ -6086,22 +6086,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.56103444839442</v>
+        <v>393.5907674431232</v>
       </c>
       <c r="C25" t="n">
-        <v>95.56103444839442</v>
+        <v>393.5907674431232</v>
       </c>
       <c r="D25" t="n">
-        <v>95.56103444839442</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E25" t="n">
         <v>95.56103444839442</v>
@@ -6174,25 +6174,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689058</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T25" t="n">
-        <v>1453.060509258584</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U25" t="n">
-        <v>1163.957642384228</v>
+        <v>1568.123020557758</v>
       </c>
       <c r="V25" t="n">
-        <v>909.2731541783409</v>
+        <v>1313.438532351871</v>
       </c>
       <c r="W25" t="n">
-        <v>619.8559841413803</v>
+        <v>1024.02136231491</v>
       </c>
       <c r="X25" t="n">
-        <v>391.866433243363</v>
+        <v>796.0318114168931</v>
       </c>
       <c r="Y25" t="n">
-        <v>171.0738540998329</v>
+        <v>575.239232273363</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
@@ -6229,25 +6229,25 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.603359811481</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M26" t="n">
-        <v>2091.135264483406</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N26" t="n">
-        <v>2637.914081542188</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O26" t="n">
-        <v>3517.878731871643</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P26" t="n">
-        <v>4231.233819318589</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q26" t="n">
-        <v>4689.712021827577</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
@@ -6259,19 +6259,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6281,13 +6281,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E27" t="n">
         <v>487.9678785494859</v>
@@ -6296,7 +6296,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H27" t="n">
         <v>114.5683260468565</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>567.9454261809101</v>
+        <v>877.1197344942216</v>
       </c>
       <c r="C28" t="n">
-        <v>399.0092432530032</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="D28" t="n">
-        <v>399.0092432530032</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E28" t="n">
-        <v>399.0092432530032</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F28" t="n">
-        <v>399.0092432530032</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G28" t="n">
-        <v>231.3064066277222</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
         <v>95.56103444839442</v>
@@ -6411,25 +6411,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689058</v>
+        <v>1802.35296817213</v>
       </c>
       <c r="T28" t="n">
-        <v>1453.060509258584</v>
+        <v>1580.586352741656</v>
       </c>
       <c r="U28" t="n">
-        <v>1453.060509258584</v>
+        <v>1580.586352741656</v>
       </c>
       <c r="V28" t="n">
-        <v>1198.376021052697</v>
+        <v>1325.901864535769</v>
       </c>
       <c r="W28" t="n">
-        <v>1198.376021052697</v>
+        <v>1325.901864535769</v>
       </c>
       <c r="X28" t="n">
-        <v>970.38647015468</v>
+        <v>1097.912313637752</v>
       </c>
       <c r="Y28" t="n">
-        <v>749.5938910111498</v>
+        <v>877.1197344942216</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
         <v>2005.253839749764</v>
@@ -6448,67 +6448,67 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>419.327655504578</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>753.1470291944245</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1617.665844847779</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M29" t="n">
-        <v>2151.197749519704</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N29" t="n">
-        <v>3130.950021746351</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O29" t="n">
-        <v>4010.914672075805</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>264.4972173763014</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C31" t="n">
-        <v>95.56103444839442</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="D31" t="n">
-        <v>95.56103444839442</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F31" t="n">
         <v>95.56103444839442</v>
@@ -6645,28 +6645,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T31" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>1218.236891347406</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V31" t="n">
-        <v>963.5524031415191</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W31" t="n">
-        <v>674.1352331045584</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X31" t="n">
-        <v>446.1456822065411</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y31" t="n">
-        <v>446.1456822065411</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>785.6651881176194</v>
+        <v>876.6177432290281</v>
       </c>
       <c r="L32" t="n">
-        <v>1521.86673817257</v>
+        <v>1741.136558882383</v>
       </c>
       <c r="M32" t="n">
-        <v>2055.398642844495</v>
+        <v>2274.668463554307</v>
       </c>
       <c r="N32" t="n">
-        <v>2602.177459903277</v>
+        <v>3254.420735780954</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232732</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="33">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>95.56103444839442</v>
+        <v>875.4238276939707</v>
       </c>
       <c r="C37" t="n">
-        <v>95.56103444839442</v>
+        <v>706.4876447660638</v>
       </c>
       <c r="D37" t="n">
-        <v>95.56103444839442</v>
+        <v>556.371005353728</v>
       </c>
       <c r="E37" t="n">
-        <v>95.56103444839442</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F37" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H37" t="n">
         <v>95.56103444839442</v>
@@ -7119,28 +7119,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S37" t="n">
-        <v>1764.65758193153</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T37" t="n">
-        <v>1559.196154437386</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="U37" t="n">
-        <v>1270.093287563029</v>
+        <v>1795.271592602718</v>
       </c>
       <c r="V37" t="n">
-        <v>1015.408799357142</v>
+        <v>1795.271592602718</v>
       </c>
       <c r="W37" t="n">
-        <v>725.9916293201816</v>
+        <v>1505.854422565758</v>
       </c>
       <c r="X37" t="n">
-        <v>498.0020784221642</v>
+        <v>1277.86487166774</v>
       </c>
       <c r="Y37" t="n">
-        <v>277.2094992786341</v>
+        <v>1057.07229252421</v>
       </c>
     </row>
     <row r="38">
@@ -7174,28 +7174,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>785.6651881176194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L38" t="n">
-        <v>1236.699401366028</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M38" t="n">
-        <v>2215.249704195857</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N38" t="n">
-        <v>3130.950021746351</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O38" t="n">
-        <v>4010.914672075805</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P38" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>855.6340846510827</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="C40" t="n">
-        <v>686.6979017231758</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="D40" t="n">
-        <v>536.5812623108401</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E40" t="n">
-        <v>388.668168728447</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F40" t="n">
-        <v>241.7782212305366</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G40" t="n">
         <v>241.7782212305366</v>
@@ -7356,28 +7356,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S40" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T40" t="n">
-        <v>1734.57685067423</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U40" t="n">
-        <v>1734.57685067423</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V40" t="n">
-        <v>1479.892362468343</v>
+        <v>1147.680357934326</v>
       </c>
       <c r="W40" t="n">
-        <v>1265.27210037934</v>
+        <v>858.2631878973651</v>
       </c>
       <c r="X40" t="n">
-        <v>1037.282549481322</v>
+        <v>630.2736369993478</v>
       </c>
       <c r="Y40" t="n">
-        <v>1037.282549481322</v>
+        <v>409.4810578558177</v>
       </c>
     </row>
     <row r="41">
@@ -7390,19 +7390,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7417,19 +7417,19 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1557.603359811481</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.135264483406</v>
+        <v>2949.638265046256</v>
       </c>
       <c r="N41" t="n">
-        <v>2637.914081542188</v>
+        <v>3507.942201196468</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232732</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q41" t="n">
         <v>4653.975400188666</v>
@@ -7438,19 +7438,19 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
         <v>3150.95552873011</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>409.4810578558177</v>
+        <v>705.517445238747</v>
       </c>
       <c r="C43" t="n">
-        <v>409.4810578558177</v>
+        <v>536.5812623108401</v>
       </c>
       <c r="D43" t="n">
-        <v>409.4810578558177</v>
+        <v>536.5812623108401</v>
       </c>
       <c r="E43" t="n">
-        <v>409.4810578558177</v>
+        <v>388.668168728447</v>
       </c>
       <c r="F43" t="n">
-        <v>409.4810578558177</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G43" t="n">
         <v>241.7782212305366</v>
@@ -7593,28 +7593,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S43" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T43" t="n">
-        <v>1652.323598701279</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U43" t="n">
-        <v>1363.220731826922</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="V43" t="n">
-        <v>1108.536243621035</v>
+        <v>1198.376021052697</v>
       </c>
       <c r="W43" t="n">
-        <v>819.1190735840747</v>
+        <v>908.9588510157366</v>
       </c>
       <c r="X43" t="n">
-        <v>591.1295226860574</v>
+        <v>908.9588510157366</v>
       </c>
       <c r="Y43" t="n">
-        <v>591.1295226860574</v>
+        <v>887.1659100689867</v>
       </c>
     </row>
     <row r="44">
@@ -7648,25 +7648,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N44" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232732</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q44" t="n">
         <v>4653.975400188666</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>432.2000540015823</v>
+        <v>659.8526275526848</v>
       </c>
       <c r="C46" t="n">
-        <v>263.2638710736754</v>
+        <v>490.9164446247779</v>
       </c>
       <c r="D46" t="n">
-        <v>263.2638710736754</v>
+        <v>340.7998052124422</v>
       </c>
       <c r="E46" t="n">
-        <v>263.2638710736754</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="F46" t="n">
-        <v>263.2638710736754</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I46" t="n">
         <v>95.56103444839442</v>
@@ -7830,28 +7830,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T46" t="n">
-        <v>1453.060509258584</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U46" t="n">
-        <v>1453.060509258584</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="V46" t="n">
-        <v>1352.04781891033</v>
+        <v>1479.892362468343</v>
       </c>
       <c r="W46" t="n">
-        <v>1062.630648873369</v>
+        <v>1290.283222424472</v>
       </c>
       <c r="X46" t="n">
-        <v>834.6410979753522</v>
+        <v>1062.293671526455</v>
       </c>
       <c r="Y46" t="n">
-        <v>613.848518831822</v>
+        <v>841.5010923829245</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>53.60948744535509</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8072,7 +8072,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>183.006569709503</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747122</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8537,13 +8537,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050811</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451751</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8692,28 +8692,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>1.01747575565679</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>229.154367407183</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8932,25 +8932,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>29.61882225792147</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>248.8400772687158</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9163,16 +9163,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>189.7998007892656</v>
       </c>
       <c r="L17" t="n">
-        <v>29.61882225792135</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9181,10 +9181,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>132.9990175570123</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9637,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>67.53663776704252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
@@ -9652,7 +9652,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9877,7 +9877,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>288.0478149561032</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>29.61882225792094</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10111,16 +10111,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>136.2499899971294</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>260.9678829613756</v>
       </c>
       <c r="L32" t="n">
-        <v>288.0478149561032</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10822,22 +10822,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>372.6479802946579</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11065,22 +11065,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>11.64153443578789</v>
       </c>
       <c r="O41" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476838</v>
+        <v>67.53663776704263</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -23418,10 +23418,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>133.503731798642</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>88.71226382522339</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23655,22 +23655,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -23703,19 +23703,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>84.85180572133191</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>84.28894647426642</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>81.02798066791269</v>
+        <v>75.60632145146322</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24132,16 +24132,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>86.5307534535802</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>214.5414662356955</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>105.0742887270133</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24414,13 +24414,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>210.354699060353</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>10.36709645678633</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>126.2505850482409</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>128.1651665445293</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>53.7364564735465</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25314,22 +25314,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>16.14213605696631</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>215.6828361086945</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>236.023131718425</v>
       </c>
       <c r="W40" t="n">
-        <v>74.04893886847799</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25788,19 +25788,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>108.3383058782202</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>197.0096418148124</v>
       </c>
     </row>
     <row r="44">
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,10 +26082,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>152.1350798790564</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>98.80994969315887</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>973233.9821312304</v>
+        <v>973233.9821312305</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>901348.8565745788</v>
+        <v>901348.8565745789</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>901348.8565745788</v>
+        <v>901348.8565745789</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>901348.8565745788</v>
+        <v>901348.8565745789</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>901348.8565745787</v>
+        <v>901348.8565745788</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>901348.8565745788</v>
+        <v>901348.8565745789</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>901348.8565745788</v>
+        <v>901348.8565745789</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>901348.8565745788</v>
+        <v>901348.8565745787</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>901348.8565745788</v>
+        <v>901348.8565745789</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117846</v>
+        <v>533677.150411785</v>
       </c>
       <c r="C2" t="n">
         <v>533677.1504117843</v>
@@ -26322,40 +26322,40 @@
         <v>533677.1504117842</v>
       </c>
       <c r="E2" t="n">
-        <v>516206.3229530783</v>
+        <v>516206.3229530781</v>
       </c>
       <c r="F2" t="n">
-        <v>516206.3229530782</v>
+        <v>516206.3229530781</v>
       </c>
       <c r="G2" t="n">
         <v>516206.3229530781</v>
       </c>
       <c r="H2" t="n">
+        <v>516206.3229530783</v>
+      </c>
+      <c r="I2" t="n">
         <v>516206.3229530781</v>
       </c>
-      <c r="I2" t="n">
-        <v>516206.3229530782</v>
-      </c>
       <c r="J2" t="n">
-        <v>516206.3229530781</v>
+        <v>516206.322953078</v>
       </c>
       <c r="K2" t="n">
-        <v>516206.3229530782</v>
+        <v>516206.3229530783</v>
       </c>
       <c r="L2" t="n">
-        <v>516206.3229530781</v>
+        <v>516206.3229530783</v>
       </c>
       <c r="M2" t="n">
         <v>516206.3229530783</v>
       </c>
       <c r="N2" t="n">
+        <v>516206.3229530783</v>
+      </c>
+      <c r="O2" t="n">
+        <v>516206.322953078</v>
+      </c>
+      <c r="P2" t="n">
         <v>516206.3229530781</v>
-      </c>
-      <c r="O2" t="n">
-        <v>516206.3229530781</v>
-      </c>
-      <c r="P2" t="n">
-        <v>516206.322953078</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>493391.6844106463</v>
+        <v>493391.6844106495</v>
       </c>
       <c r="C3" t="n">
-        <v>91792.6395744707</v>
+        <v>91792.63957446764</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,16 +26383,16 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>154726.5356832156</v>
+        <v>154726.5356832163</v>
       </c>
       <c r="K3" t="n">
-        <v>21342.09858220119</v>
+        <v>21342.09858220045</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>235704.9591760461</v>
+        <v>235704.9591760453</v>
       </c>
       <c r="C4" t="n">
         <v>209922.4154630333</v>
@@ -26429,31 +26429,31 @@
         <v>28561.83935289576</v>
       </c>
       <c r="F4" t="n">
+        <v>28561.83935289575</v>
+      </c>
+      <c r="G4" t="n">
+        <v>28561.83935289578</v>
+      </c>
+      <c r="H4" t="n">
         <v>28561.83935289576</v>
       </c>
-      <c r="G4" t="n">
-        <v>28561.83935289575</v>
-      </c>
-      <c r="H4" t="n">
-        <v>28561.83935289575</v>
-      </c>
       <c r="I4" t="n">
-        <v>28561.83935289575</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="J4" t="n">
         <v>28561.83935289575</v>
       </c>
       <c r="K4" t="n">
-        <v>28561.83935289575</v>
+        <v>28561.83935289571</v>
       </c>
       <c r="L4" t="n">
-        <v>28561.83935289575</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="M4" t="n">
         <v>28561.83935289576</v>
       </c>
       <c r="N4" t="n">
-        <v>28561.83935289575</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="O4" t="n">
         <v>28561.83935289575</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76261.10613140112</v>
+        <v>76261.10613140135</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26478,13 +26478,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
         <v>96383.51825371366</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-271680.5993063089</v>
+        <v>-271680.5993063112</v>
       </c>
       <c r="C6" t="n">
-        <v>149103.0173108708</v>
+        <v>149103.0173108739</v>
       </c>
       <c r="D6" t="n">
         <v>240895.6568853414</v>
       </c>
       <c r="E6" t="n">
-        <v>-336788.4035491958</v>
+        <v>-336183.6441371636</v>
       </c>
       <c r="F6" t="n">
-        <v>390589.0104442108</v>
+        <v>391193.7698562429</v>
       </c>
       <c r="G6" t="n">
-        <v>390589.0104442108</v>
+        <v>391193.769856243</v>
       </c>
       <c r="H6" t="n">
-        <v>390589.0104442108</v>
+        <v>391193.7698562429</v>
       </c>
       <c r="I6" t="n">
-        <v>390589.0104442108</v>
+        <v>391193.7698562429</v>
       </c>
       <c r="J6" t="n">
-        <v>235862.4747609953</v>
+        <v>236467.2341730266</v>
       </c>
       <c r="K6" t="n">
-        <v>369246.9118620097</v>
+        <v>369851.6712740426</v>
       </c>
       <c r="L6" t="n">
-        <v>390589.0104442108</v>
+        <v>391193.769856243</v>
       </c>
       <c r="M6" t="n">
-        <v>260946.6956052661</v>
+        <v>261551.4550172982</v>
       </c>
       <c r="N6" t="n">
-        <v>390589.0104442108</v>
+        <v>391193.769856243</v>
       </c>
       <c r="O6" t="n">
-        <v>390589.0104442108</v>
+        <v>391193.7698562428</v>
       </c>
       <c r="P6" t="n">
-        <v>390589.0104442107</v>
+        <v>391193.7698562429</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.3599178435484</v>
+        <v>306.3599178435508</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712462</v>
+        <v>591.362827671249</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.3599178435484</v>
+        <v>306.3599178435508</v>
       </c>
       <c r="C3" t="n">
-        <v>71.38374637353814</v>
+        <v>71.3837463735358</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762114</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712462</v>
+        <v>591.362827671249</v>
       </c>
       <c r="C4" t="n">
-        <v>82.92444508330948</v>
+        <v>82.92444508330658</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712462</v>
+        <v>591.362827671249</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330948</v>
+        <v>82.92444508330658</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712462</v>
+        <v>591.362827671249</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330948</v>
+        <v>82.92444508330658</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>326.8617025836456</v>
+        <v>326.8617025836455</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>162.9947207958793</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,22 +27426,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>72.50477145174345</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>135.3488053536783</v>
+        <v>72.95937739240858</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.7045308089147</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2471250950627</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27475,10 +27475,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>69.26848508913588</v>
+        <v>77.53282428172619</v>
       </c>
       <c r="I3" t="n">
-        <v>66.70865780356738</v>
+        <v>66.70865780356721</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27511,7 +27511,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>197.5086460108761</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27523,7 +27523,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27542,25 +27542,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>46.05426218479738</v>
+        <v>167.4385270475933</v>
       </c>
       <c r="H4" t="n">
-        <v>157.3153692344725</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>138.8367272514147</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>54.30080173848793</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.90169565731858</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>152.4531265631664</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>214.3888609467086</v>
+        <v>214.3888609467085</v>
       </c>
       <c r="T4" t="n">
         <v>225.5851113727656</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>199.5376252464414</v>
       </c>
     </row>
     <row r="5">
@@ -27624,13 +27624,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>197.9411946190538</v>
+        <v>372.0566164553405</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27675,7 +27675,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27776,10 +27776,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>136.7057146380968</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27791,13 +27791,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>22.21426855158876</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27858,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27915,10 +27915,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>23.98522015752701</v>
+        <v>39.03327921531314</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28016,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>46.8347852886633</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28076,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>123.9289676594881</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -29562,7 +29562,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>-1.06581410364015e-12</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.231597659672556</v>
+        <v>1.231597659672565</v>
       </c>
       <c r="H2" t="n">
-        <v>12.61309953212156</v>
+        <v>12.61309953212166</v>
       </c>
       <c r="I2" t="n">
-        <v>47.48116877452625</v>
+        <v>47.48116877452662</v>
       </c>
       <c r="J2" t="n">
-        <v>104.5303118676337</v>
+        <v>104.5303118676345</v>
       </c>
       <c r="K2" t="n">
-        <v>156.663840801573</v>
+        <v>156.6638408015742</v>
       </c>
       <c r="L2" t="n">
-        <v>194.355347678777</v>
+        <v>194.3553476787785</v>
       </c>
       <c r="M2" t="n">
-        <v>216.2577725589788</v>
+        <v>216.2577725589805</v>
       </c>
       <c r="N2" t="n">
-        <v>219.7570494095235</v>
+        <v>219.7570494095252</v>
       </c>
       <c r="O2" t="n">
-        <v>207.5103501811545</v>
+        <v>207.5103501811561</v>
       </c>
       <c r="P2" t="n">
-        <v>177.1052829579882</v>
+        <v>177.1052829579896</v>
       </c>
       <c r="Q2" t="n">
-        <v>132.9986917709648</v>
+        <v>132.9986917709658</v>
       </c>
       <c r="R2" t="n">
-        <v>77.36434648940623</v>
+        <v>77.36434648940684</v>
       </c>
       <c r="S2" t="n">
-        <v>28.06503166978839</v>
+        <v>28.06503166978861</v>
       </c>
       <c r="T2" t="n">
-        <v>5.391318755216615</v>
+        <v>5.391318755216656</v>
       </c>
       <c r="U2" t="n">
-        <v>0.09852781277380443</v>
+        <v>0.09852781277380519</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6589628421540475</v>
+        <v>0.6589628421540528</v>
       </c>
       <c r="H3" t="n">
-        <v>6.364193765014092</v>
+        <v>6.364193765014142</v>
       </c>
       <c r="I3" t="n">
-        <v>22.68797504784769</v>
+        <v>22.68797504784787</v>
       </c>
       <c r="J3" t="n">
-        <v>62.25753764403658</v>
+        <v>62.25753764403707</v>
       </c>
       <c r="K3" t="n">
-        <v>106.4080480683578</v>
+        <v>106.4080480683586</v>
       </c>
       <c r="L3" t="n">
-        <v>143.0787521966497</v>
+        <v>143.0787521966508</v>
       </c>
       <c r="M3" t="n">
-        <v>166.9661552247339</v>
+        <v>166.9661552247352</v>
       </c>
       <c r="N3" t="n">
-        <v>171.3852525302319</v>
+        <v>171.3852525302332</v>
       </c>
       <c r="O3" t="n">
-        <v>156.7840232382922</v>
+        <v>156.7840232382934</v>
       </c>
       <c r="P3" t="n">
-        <v>125.8330009723813</v>
+        <v>125.8330009723822</v>
       </c>
       <c r="Q3" t="n">
-        <v>84.11602876338334</v>
+        <v>84.11602876338399</v>
       </c>
       <c r="R3" t="n">
-        <v>40.91349997163466</v>
+        <v>40.91349997163497</v>
       </c>
       <c r="S3" t="n">
-        <v>12.23994577422101</v>
+        <v>12.2399457742211</v>
       </c>
       <c r="T3" t="n">
-        <v>2.65608268394548</v>
+        <v>2.656082683945501</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04335281856276631</v>
+        <v>0.04335281856276665</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5524523108654151</v>
+        <v>0.5524523108654195</v>
       </c>
       <c r="H4" t="n">
-        <v>4.911803272967058</v>
+        <v>4.911803272967097</v>
       </c>
       <c r="I4" t="n">
-        <v>16.61374767584358</v>
+        <v>16.61374767584371</v>
       </c>
       <c r="J4" t="n">
-        <v>39.05837837818485</v>
+        <v>39.05837837818515</v>
       </c>
       <c r="K4" t="n">
-        <v>64.18491393509095</v>
+        <v>64.18491393509144</v>
       </c>
       <c r="L4" t="n">
-        <v>82.13459174448182</v>
+        <v>82.13459174448246</v>
       </c>
       <c r="M4" t="n">
-        <v>86.59941087502138</v>
+        <v>86.59941087502206</v>
       </c>
       <c r="N4" t="n">
-        <v>84.54027044361399</v>
+        <v>84.54027044361466</v>
       </c>
       <c r="O4" t="n">
-        <v>78.08662299395888</v>
+        <v>78.08662299395949</v>
       </c>
       <c r="P4" t="n">
-        <v>66.81659585230436</v>
+        <v>66.81659585230489</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.26034759437581</v>
+        <v>46.26034759437617</v>
       </c>
       <c r="R4" t="n">
-        <v>24.84026481400311</v>
+        <v>24.84026481400331</v>
       </c>
       <c r="S4" t="n">
-        <v>9.62773709026364</v>
+        <v>9.627737090263716</v>
       </c>
       <c r="T4" t="n">
-        <v>2.360478055515864</v>
+        <v>2.360478055515883</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03013376241084086</v>
+        <v>0.0301337624108411</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>92.58102251302114</v>
+        <v>92.58102251302195</v>
       </c>
       <c r="K2" t="n">
-        <v>260.7194023277572</v>
+        <v>260.7194023277584</v>
       </c>
       <c r="L2" t="n">
-        <v>376.2501472592402</v>
+        <v>376.2501472592417</v>
       </c>
       <c r="M2" t="n">
-        <v>435.4250728245386</v>
+        <v>435.4250728245402</v>
       </c>
       <c r="N2" t="n">
-        <v>427.6909102249167</v>
+        <v>427.6909102249184</v>
       </c>
       <c r="O2" t="n">
-        <v>358.2123200222131</v>
+        <v>358.2123200222147</v>
       </c>
       <c r="P2" t="n">
-        <v>267.6709953742013</v>
+        <v>267.6709953742027</v>
       </c>
       <c r="Q2" t="n">
-        <v>123.00799255642</v>
+        <v>123.007992556421</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>61.51094631777872</v>
+        <v>61.51094631777922</v>
       </c>
       <c r="K3" t="n">
-        <v>233.0318461065774</v>
+        <v>22.17609653935469</v>
       </c>
       <c r="L3" t="n">
-        <v>375.3647177202347</v>
+        <v>375.3647177202358</v>
       </c>
       <c r="M3" t="n">
-        <v>490.5371850527155</v>
+        <v>490.5371850527167</v>
       </c>
       <c r="N3" t="n">
-        <v>519.3859147904521</v>
+        <v>519.3859147904534</v>
       </c>
       <c r="O3" t="n">
-        <v>197.1943485033507</v>
+        <v>408.0500980705785</v>
       </c>
       <c r="P3" t="n">
-        <v>310.3213621979882</v>
+        <v>310.3213621979892</v>
       </c>
       <c r="Q3" t="n">
-        <v>154.2115424132109</v>
+        <v>154.2115424132116</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>41.91542210920809</v>
+        <v>41.91542210920859</v>
       </c>
       <c r="L4" t="n">
-        <v>109.724617004798</v>
+        <v>109.7246170047986</v>
       </c>
       <c r="M4" t="n">
-        <v>126.183287836862</v>
+        <v>126.1832878368626</v>
       </c>
       <c r="N4" t="n">
-        <v>128.6724428228426</v>
+        <v>128.6724428228433</v>
       </c>
       <c r="O4" t="n">
-        <v>102.6717509079986</v>
+        <v>102.6717509079992</v>
       </c>
       <c r="P4" t="n">
-        <v>64.09515511719785</v>
+        <v>64.09515511719837</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35257,13 +35257,13 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730077</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355119</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35412,28 +35412,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>338.2087623110573</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>627.9163536265546</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35582,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35652,25 +35652,25 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>568.5399380881482</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>756.893078156935</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>526.991087344666</v>
       </c>
       <c r="L17" t="n">
-        <v>485.2089366502535</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>323.7860185257249</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36357,13 +36357,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>258.3236387357551</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M23" t="n">
         <v>988.4346493230593</v>
@@ -36372,7 +36372,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193719</v>
@@ -36381,7 +36381,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36597,7 +36597,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>625.2391015115037</v>
       </c>
       <c r="L26" t="n">
         <v>455.5901143923322</v>
@@ -36618,7 +36618,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>89.23202080014572</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,16 +36831,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>327.036990965842</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
         <v>989.6487598248956</v>
@@ -36855,7 +36855,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>598.159169516776</v>
       </c>
       <c r="L32" t="n">
-        <v>743.6379293484354</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37542,22 +37542,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M38" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
-        <v>924.9498157075694</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P38" t="n">
         <v>398.7619862193719</v>
@@ -37566,7 +37566,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37785,22 +37785,22 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>563.9433698486994</v>
       </c>
       <c r="O41" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
         <v>125.3296184152072</v>
@@ -38016,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>852.7555845359029</v>
+        <v>575.5896386552618</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
         <v>125.3296184152072</v>
